--- a/data/hotels_by_city/Dallas/Dallas_shard_476.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_476.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="499">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>krowoldt</t>
+  </si>
+  <si>
     <t>06/14/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>I was in this bustling little town on business for a few days and was very pleased with my booking at the LaQuinta. The staff was outstanding.  When I checked, the lady working the desk was quick to recommend the town's favorite place to eat - and she was so right. She also said, "don't miss our breakfast here - it's great!"  She was right. I almost missed it though, not getting down to eat until right at close. But the lady working the breakfast bar saw me come in late, greeted me and asked if she could cook up something fresh and hot for me. Wow - well, yes!  It was delicious and so appreciated. I will return to LaQuinta again in Bridgeport.  One note of caution: The city street that takes you to and from the hotel is full of some serious potholes and even a major drop off as you turn off the feeder street to it. Be careful.  The city really needs to do some repairs ASAP!!!More</t>
   </si>
   <si>
+    <t>chadwellw2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r548753585-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>I was very impressed with the amount of space in the suite. The bed was very nice the bathroom was very clean I enjoyed the nice hot shower. The only thing I would consider having changed is having the coffee pot in the bathroom. More</t>
   </si>
   <si>
+    <t>W6341LJtimw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r544431884-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>I like how the staff is personable and keep your needs in mind! We have stayed at this hotel several times and the staff made sure to inform us about the rewards program. I am positive that this will save us money in the future since we come into town quite a bit.More</t>
   </si>
   <si>
+    <t>826felicias</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r542362769-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>The room was great. the top decorative blanket had a few stains on it but other than that the room was in mint condition. everything was clean and it exceeded our expectations. The breakfast was good but they were low on their juices and milk and no one was around to ask for more when we were getting ours and we had an uncooked sausage patty but overall the breakfast was really good. Was charged full price for the room instead of my government rate, so for sure check your bill if you are told one price and then charged another price. Overall, i would say this is a good hotel to stay at.More</t>
   </si>
   <si>
+    <t>PhePhe09</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r540718523-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t>The room was great. The room was clean and was better than I originally expected. The breakfast was great as well. However, when I had booked our room I requested the King size bed with the pull out couch with my state discount (as I was there for family and a business meeting) and was told my card would not be charged until Sunday when we checked out. Got to the hotel and they had me in a double full size bedroom, which she quickly corrected. The lady helping us was very friendly and polite but the lady that was sitting at the front desk was RUDE! She reminded me that I only booked the room for two adults and one child, which is all that was staying in the hotel, but i had two visitors with me as I had just met up with my family in Denton. I politely told her that we knew that and they were only there to visit. THEN she charged me for the entire price of the hotel making it VOID for me to file with my job to be reimbursed for my business meeting Saturday and ran my card Friday when we checked in (which was not a big deal but was informed that we wouldn't be charged until Sunday). Great place but my advice would be to check your bill before leaving to make sure you are charged correctly.More</t>
   </si>
   <si>
+    <t>GREGORY G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r540406472-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -315,6 +333,9 @@
     <t>My wife and I came down from the Chicagoland area to visit CARE Rescue Texas. This hotel is run by a sweet couple. I’m not sure if they own it or are live in keepers, but they keep everything clean and pleasant. The lady was keeping the breakfast stocked and nothing ran out. She is very personable. I would not second guess staying here again. Awesome stay!!More</t>
   </si>
   <si>
+    <t>Joe H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r535273217-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -342,6 +363,9 @@
     <t>Best place to stay in Bridgeport, especially if you have pets.  Mrs Katy is the best.  Clean rooms, good breakfast and friendly service.  I stay here at least four times a year while working in the area.  I could stay closer to the job but the service and staff at this hotel make it worth the extra mileage.More</t>
   </si>
   <si>
+    <t>Sharon M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r532744431-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -369,6 +393,9 @@
     <t>Katie was great. Breakfast were good. We stayed here5 nights. Quiet and very clean!  Enjoyed our stay. Room was very nice and kept clean.  Full breakfast every morning. Katie kept breakfast put and replenished when needed More</t>
   </si>
   <si>
+    <t>306bartonc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r525636900-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -396,6 +423,9 @@
     <t>Bridgeport TX doesn't have a lot of options, this is a good one to stay close to the job site.  It prevents you from having to stay closer to Ft. Worth and driving a whole lot more every day.  Decent choice.More</t>
   </si>
   <si>
+    <t>jcorbett2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r521400755-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -420,6 +450,9 @@
     <t>We are soooo impressed with management &amp; staff who in our opinion are tops!!! The suite was clean &amp; comfortable.  Breakfast was delicious.  Service was personal &amp; immediate.  We are planning to stay there in the future.More</t>
   </si>
   <si>
+    <t>troyf277</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r489766668-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -447,6 +480,9 @@
     <t>We do not usually choose La Quinta but very glad we did!   This is a new hotel in this town.  It had a great location to dining and shopping.  The hotel was clean and the staff was friendly.  I was impressed with the room.  We will be returning soon and will definitely stay again!More</t>
   </si>
   <si>
+    <t>Da V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r474836388-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -474,6 +510,9 @@
     <t>This is an older hotel that has been modernly refined. The owners work the counter and are very nice. I would most definitely stay here again. I was even made a real breakfast with real eggs and bacon... That was a first! Very clean and very nice!More</t>
   </si>
   <si>
+    <t>sportstravelerTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r473947593-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -496,6 +535,9 @@
   </si>
   <si>
     <t>Hotel was clean, well maintained and our room was fairly spacious. Bed, bedding, and pillows were very comfortable. Bathroom was spacious with ample vanity space for toiletries; towels were thick but a bit rough. Staff was friendly and efficient. Complementary breakfast was very good and consisted of real scrambled eggs, sausage, bacon, fresh biscuits and other items. There are plenty of places to eat within a short distance of hotel.More</t>
+  </si>
+  <si>
+    <t>FrumiousBandersnatch</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r471543108-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
@@ -531,6 +573,9 @@
 Bridgeport is not exactly a prosperous town, so what business that needs a hotel seems to gravitate here far more than the others here. This location is great, as the highway has most of the fast food in town all...This property is a labor of love for the dedicated owners of Katie and 'Peter' Kang, along with Amanda, and their cleaning staff. It's run almost like a bed and breakfast in a decent sized brand name hotel. There's a reason why the two competing properties across the street sit almost always empty all the time. (The Quality Inn &amp; Suites  on the other side of the road is NOT recommended!)We stay here for extended periods so we always ask for a ground floor suite (room 106). While a little more expensive, it has two large rooms and a king bed to spread out in, along with LQ's standard fridge and microwave. They have a big DirecTV channel lineup and two TVs in this room with a pull out sleeper couch if there are more than two of you, and there's a coin op laundry on site. And their welcoming dog policy is a major plus for us.Even if there are only 4 or 5 guests in the whole place Katie sets out breakfast every morning. She and Peter live on the property and are extremely attentive to your needs and requests, no matter what time of day.Bridgeport is not exactly a prosperous town, so what business that needs a hotel seems to gravitate here far more than the others here. This location is great, as the highway has most of the fast food in town all lined up in a row, along with a large, modern Brookshire supermarket right across the street. Only serious complaint we have is actually true of ALL LQs we've stayed at: they all seem to have the identical stiff as a board mattresses. So we always bring a foam mattress topper when we know we'll be at a LQ hotel, no matter where.That said, if you have to stay in Bridgeport, you can't beat the La Quinta.More</t>
   </si>
   <si>
+    <t>Billye J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r458422209-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -561,6 +606,9 @@
     <t>Hotel was clean, staff were friendly and accommodating. The breakfast was decent. The area was good. And I felt safe travelling alone. I had no problems here. Since this was the first night of my stay I felt good about the experience. And had a good trip because I did not have to worry about my sleeping arrangements.More</t>
   </si>
   <si>
+    <t>OKCtravler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r456839056-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -588,6 +636,9 @@
     <t>Great little room with great breakfast.  Only 4 or 5 people staying that night in the entire hotel.  The location is great for the Bridgeport offload.  Parking is available in the back for trailer parking.More</t>
   </si>
   <si>
+    <t>graceg109998</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r446143942-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -615,6 +666,9 @@
     <t>Staff was very rude, especially the front desk. The maid service was horrific because they wouldn't provide amenities that were needed. My room had ran out of toilet paper and they simply refused to give me more. The beds were also extremely uncomfortable and the ice machine didn't even work. I am never coming to this place again.More</t>
   </si>
   <si>
+    <t>Scott8147</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r426762360-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -642,6 +696,9 @@
     <t>We stayed here one night. The manager (owner?), was very friendly at check in. She seemed to be doing everything as she was also handling breakfast the next morning.  We had a problem with the vending machines and she came promptly to open them and get what we wanted. Our room was clean with plenty of towels. We used the fitness room which was also fine.  An excellent stay.....recommended.More</t>
   </si>
   <si>
+    <t>486samuell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r426918690-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -657,6 +714,9 @@
     <t>Everyone excellant except cluttered exercise room. All pushed together instead of spaced for safer use. Rooms were clean and fresh looking. Breakfast was varied and plenty of warm items. Room was quiet. TV was easy to operate and manage. Bed was firm with plenty of pillows.  Parking was near entrance.Checkout was very fast. Checkin was smooth and paperwork was waiting on me. Text message sent earlier telling me that the room was ready.More</t>
   </si>
   <si>
+    <t>Corinne S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r421136045-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -684,6 +744,9 @@
     <t>This is a very nice hotel.  Without a doubt, the best breakfast of any LQ or hotel I've stayed in.  Staff always friendly &amp; helpful.  Always willing to help in any way they can.  I also feel safe when outside this facilityMore</t>
   </si>
   <si>
+    <t>Joanna T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r319993020-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -702,6 +765,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Melody H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r318266120-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -723,6 +789,9 @@
     <t>My husband and I stayed in this hotel when I went to Texas to have surgery.Check-in was easy and the staff was very friendly.   We reserved a 2 queen bed room and it was pretty spacious.  It had typical amenities (coffee pot, mini-fridge, blow dryer, ironing board, etc).  The TV was a nice size and got a lot of channels.  The beds were pretty comfortable and the room was very clean.The entire hotel was pretty clean and the noise level was low.  We were on the first floor, but didn't hear anything from other guests.  It was a very convenient location to the hospital as well.I would definitely suggest staying in this La Quinta if you're ever in the Bridgeport area!More</t>
   </si>
   <si>
+    <t>BLACKWELL P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r308413583-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -741,6 +810,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Txmamma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r307966972-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -772,6 +844,9 @@
   </si>
   <si>
     <t>August 2015</t>
+  </si>
+  <si>
+    <t>Twolip29</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r291202890-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
@@ -799,6 +874,9 @@
  We got ready to go to the pool and she found out we were on our way and said she will go get us some towels to take to the pool.  Pool area is nice just been to better pool areas.  It was in a small town so I wasn't expecting much.  We didn't use the fitness room or go inside...The rooms are very nice.  The only thing I didn't like was the high vanity in the bathrooms.  It's hard for small kids to use without the parents holding them up.  I'm short &amp; at times was hard for me.  What made it so bad instead of the vanity top being straight where the sink area is it was rounded out past the rest of the top of the vanity.  Very pretty but not well thought out. The breakfast was really good.  It had sausage, scrambled eggs, hard boiled eggs, Texas shaped  waffles that were really good.  Lots of assorted pastries, breads &amp; muffins,  fresh fruit, hot &amp; cold cereals, milk, coffee &amp; juice. The lady that ran it asked my husband if we wanted any more scrambled eggs.  He said it would be nice since his wife was coming down in a minute and not many left.  Then she said they hate to make to much food they don't want to have lots of food to throw away.  Rest of the time she was very nice &amp; helpful.  We got ready to go to the pool and she found out we were on our way and said she will go get us some towels to take to the pool.  Pool area is nice just been to better pool areas.  It was in a small town so I wasn't expecting much.  We didn't use the fitness room or go inside to check it out.This was a good place to take the family.  The grandkids loved staying there.More</t>
   </si>
   <si>
+    <t>Donnell K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r289730778-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -817,6 +895,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>danielcA3075YI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r289729921-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -832,6 +913,9 @@
     <t>there nothing to say really it was awesome. However they charged my card incorrectly not once for a few times and although it was fixed it caused issues. My bank had to jump in and help just so that I had spending money for myself and family.</t>
   </si>
   <si>
+    <t>William B W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r285148599-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -847,6 +931,9 @@
     <t>We stayed here one night.  The hotel staff was very friendly and accommodating.  The location is very convenient to the places we visited.  We needed a little extension of time for check out and the receptionist was very agreeable.  The breakfast was continental but sufficient and good.</t>
   </si>
   <si>
+    <t>John C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r284626121-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -862,6 +949,9 @@
     <t>My wife and I stayed in this hotel overnight on a Saturday night.  The hotel is fairly new and is right on Hwy 380 so you can't miss it.  It was clean and comfortable.  Staff was courteous.  The free breakfast was good.  All in all it was an enjoyable stay.</t>
   </si>
   <si>
+    <t>Sharron F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r283056333-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -877,6 +967,9 @@
     <t>Ms. Kang the manager was excellent, seem to take a person interest in making sure accommodations are satisfactory for her guest. Personally checked the temperature in the room upon our arrival, asked if wanted additional selections for breakfast. Even saw her cook bacon upon request by another guest.</t>
   </si>
   <si>
+    <t>Thomas J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r274120020-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -895,6 +988,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>wtaylor2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r271117872-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -910,6 +1006,9 @@
     <t>The area seams like the economy has gone down since the oil drilling has slowed up. I have stayed in this  motel 4+ times. The staff is all ways friendly. The rooms are very clean. There are a few other motels in town but this one seams to be the best. Breakfast very good. The staff ask us how we would like our eggs cooked for breakfast. If you stay in motels a lot you know you do not have a choice in the breakfast items.</t>
   </si>
   <si>
+    <t>Robert B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r249535637-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -928,6 +1027,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>perrjojo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r242553587-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -944,6 +1046,9 @@
   </si>
   <si>
     <t>November 2014</t>
+  </si>
+  <si>
+    <t>JFshooter</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r233335581-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
@@ -975,6 +1080,9 @@
 My one and only complaint was the WiFi situation. On the first night, I was able to get good Wifi in my room (on the 2nd floor). Every other night, I was unable to connect. One of the nights I had to go to the lobby to connect to the wifi, but the other 2 nights I was unable to connect to the wifi and the staff had no explanation...If you've never been to Bridgeport, TX, your options for food, lodging, and entertainment are extremely limited to say the least!! For major chain hotels in the area, there is the La Quinta Inn &amp; Suites and 1 other major national chain hotel, and a handful of "mom &amp; pop" type privately owned and operated local motels. The La Quinta seems to be pretty recent construction and looks somewhat out of place for its size and how nice and clean it is. The staff was very friendly, professional, pleasant, and helpful. Check-in was a breeze since they had already pre-checked everyone that had a reservation for the day, and already had room assignments, keys, and paperwork already ready for you when you arrived. The hotel is very nice, and clean. They offer a really good complimentary breakfast bar every morning from 6am - 10am. My room was a regular single room and was very comfortable and had a fridge, microwave, coffee maker, and all furnishings could have passed for new. My one and only complaint was the WiFi situation. On the first night, I was able to get good Wifi in my room (on the 2nd floor). Every other night, I was unable to connect. One of the nights I had to go to the lobby to connect to the wifi, but the other 2 nights I was unable to connect to the wifi and the staff had no explanation and apparently couldn't fix it. That was a slight inconvenience, and MY ONLY COMPLAINT. If you can deal with possibly having to go without wifi, you won't otherwise be disappointed with choosing the La Quinta for your stay in Bridgeport, TX.More</t>
   </si>
   <si>
+    <t>gustheguidedog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r232709504-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -996,6 +1104,9 @@
     <t>I was shocked and dismayed by the “Horrible! Dried dog turds under bed.” comment earlier, its plain to see that the woman who made the comment either:-a) Thought by `Bad Mouthing` the hotel she was liable for compensation (Notice the mention of restitution)orb) works for a rival hotel and wants to dissuade folk from visiting this hotel.I am blind and therefore need to use the computer with the aid of specialized software, but hey look at the abilities NOT the disabilities. I work for the Disability Discrimination Commissioner for England and Wales  Last year I was asked to survey this hotel and I can highly recommend it to anyone in particular to VIPs (Visually Impaired People) the staff were VERY friendly but not to `in your face` they were however there if you need them, special thanks to the young lady who took my guide dog for a walk when I was called to the telephone.Note to Gale R (author of the malicious review , Making false reviews like that only leads to folk mistrusting your opinions in the future.Once again La Quinta thank you and I look forward to staying with you again next time I hope it's for pleasure rather than Business.More</t>
   </si>
   <si>
+    <t>Gale R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r210876625-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1023,6 +1134,9 @@
     <t>Most disgusting stay at any hotel ever. Toilet not cleaned from use when we arrived. Dried dog turds under the bed. Bugs in bathroom. Do not stay! Lady at front desk cleaned dog s___t from under bed and toilet while we were gone. However, there was no restitution offered of any kind.More</t>
   </si>
   <si>
+    <t>Phillip P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r209034274-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1050,6 +1164,9 @@
     <t>Spouse and I came up for a family event and brought our small dog.  No problem (or deposit) having a pet, room upgraded without asking, clean and comfortable, staff helpful.  Hotel quiet, we rested well, enjoyed free breakfast, obvious that management and staff were making effort to keep hotel in great shape and clean.  Best place I have stayed in the Decatur and Bridgeport area.More</t>
   </si>
   <si>
+    <t>Natalie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r199863358-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1071,6 +1188,9 @@
     <t>This hotel was clean, the staff were friendly and the rooms were clean.  I would stay at this hotel again.  The location is good.  Hotel lobby was very clean and the breakfast area was tended to by hotel staff throughout the morning.More</t>
   </si>
   <si>
+    <t>703kellyv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r170218967-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1089,6 +1209,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Charles C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r163880476-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1104,6 +1227,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>mason814</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r163662579-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1119,6 +1245,9 @@
     <t>This hotel was everything a hotel should be on a trip.  The front desk, manager and the maids were very pleasant and kind.  When the business center would not connect the hotel owner/manager allowed me into her office to print my boarding pass.  I would defiantly stay with La Quinta again on future trips.</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r158551250-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1153,6 +1282,9 @@
   </si>
   <si>
     <t>February 2013</t>
+  </si>
+  <si>
+    <t>Ibssguy</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r146854685-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
@@ -1180,6 +1312,9 @@
 Breakfast was standard hot continental fare....I have had some excellent [and awful] service at motels over the years but none better than this.  I found out late 9pm or so that I would need to stay the night in Bridgeport, so I used the Kayak app to find a place to stay.  It gave me a $84 incl. tax rate, but when I clicked on it I was told the rate had gone up to 94+tax.  I called the motel directly and was quoted the $84 incl. tax rate.  The man I spoke with told me to just come on and we'd do the paperwork when I arrived.  When I got there, he had everything done except my personal info &amp; told me he had upgraded me to a suite for the same price since one was available.  I had a couple of business associates with me and we needed to visit so he offered to open the breakfast area for us.  The suite was actually two rooms &amp; a bath unlike many places where a large room is called a suite.  Each room had it's own thermostat controlled heat/cool.  The decor was a bit dated, but comfortable.   Living room had TV, couch, desk, wet bar, fridge &amp; microwave.  Bedroom was larger than many motel rooms I have stayed in.  Clean sheets, no bed bugs, comfortable linens.  Only complaint was that the bed squeaked terribly, every time I moved.Breakfast was standard hot continental fare.  Eggs, Sausage patties, biscuits &amp; gravy.  Cereal, basic pastries, waffles, fruit, yogurt, etc.  Juice, Coffee, tea &amp; hot chocolate.Outside pool, convenient parking.Overall, the motel was nothing special, just basically a comfortable place to sleep, but the service was far above normal service at this level hotel.  I would gladly stay here again because of it.More</t>
   </si>
   <si>
+    <t>Iguana108</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r146702983-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1198,6 +1333,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>A La Quinta traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r146266159-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1207,6 +1345,9 @@
     <t>11/26/2012</t>
   </si>
   <si>
+    <t>tw547</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r145177658-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1240,6 +1381,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Tony1200nice</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r143313492-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1291,6 +1435,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Intae K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r132540615-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1309,6 +1456,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>eclectic138400</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r132365389-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1321,6 +1471,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>TIDMS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r101052604-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1342,6 +1495,9 @@
     <t>Outside appearance was pathetic.  There was garbage in the landscape, the landscape was not groomed, and there was garbage overfowing out of the dumpster into the front entry drive.  The bathtub drain plug was broken, the water had a horrible smell, and the water pressure in the bathroom sink would not rinse a toothbrush.  The towels were as rough as sandpaper.  The outdoor pool was brown and gross, which for having 80 degree weather for sometime prior to my stay, I think it should have had Spring cleanup performed.  I had booked for two nights, but forfeited the expense for the second night and found other lodging.  P.S.  the staff was excitted about being there as I was. :-(More</t>
   </si>
   <si>
+    <t>Sarah8714</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r93881291-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1358,6 +1514,9 @@
   </si>
   <si>
     <t>January 2011</t>
+  </si>
+  <si>
+    <t>Bonden-in-Florida</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r81416890-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
@@ -1880,43 +2039,47 @@
       <c r="A2" t="n">
         <v>57967</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>163173</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1934,56 +2097,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57967</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>163174</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2005,56 +2172,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57967</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>163175</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2076,56 +2247,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57967</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>163176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2147,56 +2322,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57967</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>163177</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2214,56 +2393,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57967</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>163178</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2275,56 +2458,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="Y7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57967</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>67131</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2346,56 +2533,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="X8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Y8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57967</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>7173</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
+        <v>119</v>
+      </c>
+      <c r="L9" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>111</v>
       </c>
-      <c r="L9" t="s">
-        <v>112</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>104</v>
-      </c>
       <c r="O9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2407,56 +2598,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57967</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>163179</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2478,56 +2673,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57967</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>163180</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="O11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2549,56 +2748,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="X11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="Y11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57967</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>163181</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="J12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="K12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2620,56 +2823,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57967</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>163182</v>
+      </c>
+      <c r="C13" t="s">
+        <v>154</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2687,56 +2894,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="X13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="Y13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57967</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>147346</v>
+      </c>
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="K14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2752,56 +2963,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="X14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57967</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>163183</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2813,56 +3028,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57967</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>108389</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="O16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -2884,56 +3103,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="X16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="Y16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57967</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>163184</v>
+      </c>
+      <c r="C17" t="s">
+        <v>194</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="J17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="K17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="L17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="O17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2955,56 +3178,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="X17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="Y17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57967</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>163185</v>
+      </c>
+      <c r="C18" t="s">
+        <v>204</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="J18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="K18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="L18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3020,56 +3247,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="X18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Y18" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57967</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>163186</v>
+      </c>
+      <c r="C19" t="s">
+        <v>214</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="J19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="K19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="L19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="O19" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3081,56 +3312,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="X19" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="Y19" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57967</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>163187</v>
+      </c>
+      <c r="C20" t="s">
+        <v>224</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="J20" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="K20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="L20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3150,56 +3385,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="X20" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="Y20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57967</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>163188</v>
+      </c>
+      <c r="C21" t="s">
+        <v>230</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="J21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="K21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="L21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="O21" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3221,56 +3460,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="X21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="Y21" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57967</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>77526</v>
+      </c>
+      <c r="C22" t="s">
+        <v>240</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="L22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3292,50 +3535,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57967</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>102274</v>
+      </c>
+      <c r="C23" t="s">
+        <v>247</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="J23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="K23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="L23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="O23" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3353,50 +3600,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57967</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>163189</v>
+      </c>
+      <c r="C24" t="s">
+        <v>255</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="J24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="K24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="L24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="O24" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -3420,41 +3671,45 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57967</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>163190</v>
+      </c>
+      <c r="C25" t="s">
+        <v>262</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="J25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="K25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="L25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
@@ -3473,50 +3728,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>57967</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>163187</v>
+      </c>
+      <c r="C26" t="s">
+        <v>230</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="J26" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="K26" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="L26" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="O26" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3540,50 +3799,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57967</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>163191</v>
+      </c>
+      <c r="C27" t="s">
+        <v>274</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="J27" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="K27" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="O27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3603,50 +3866,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57967</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>163192</v>
+      </c>
+      <c r="C28" t="s">
+        <v>282</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="J28" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="K28" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="L28" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3670,50 +3937,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>57967</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>163193</v>
+      </c>
+      <c r="C29" t="s">
+        <v>289</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="J29" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="K29" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="L29" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3737,50 +4008,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>57967</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>163194</v>
+      </c>
+      <c r="C30" t="s">
+        <v>295</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="J30" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="K30" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="L30" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -3798,50 +4073,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>57967</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>364</v>
+      </c>
+      <c r="C31" t="s">
+        <v>301</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="J31" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="K31" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="L31" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3865,50 +4144,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>57967</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>163195</v>
+      </c>
+      <c r="C32" t="s">
+        <v>307</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="J32" t="s">
+        <v>310</v>
+      </c>
+      <c r="K32" t="s">
+        <v>311</v>
+      </c>
+      <c r="L32" t="s">
+        <v>312</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
         <v>280</v>
       </c>
-      <c r="K32" t="s">
-        <v>281</v>
-      </c>
-      <c r="L32" t="s">
-        <v>282</v>
-      </c>
-      <c r="M32" t="n">
-        <v>5</v>
-      </c>
-      <c r="N32" t="s">
-        <v>255</v>
-      </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -3932,50 +4215,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>57967</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>1616</v>
+      </c>
+      <c r="C33" t="s">
+        <v>313</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="J33" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="K33" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="L33" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="O33" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3999,50 +4286,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>57967</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>163196</v>
+      </c>
+      <c r="C34" t="s">
+        <v>320</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="J34" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="K34" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="L34" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4060,50 +4351,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>57967</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C35" t="s">
+        <v>326</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="J35" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="K35" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="L35" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="O35" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4127,50 +4422,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>57967</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>163197</v>
+      </c>
+      <c r="C36" t="s">
+        <v>333</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="J36" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="K36" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="L36" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="O36" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4188,50 +4487,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>57967</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>163198</v>
+      </c>
+      <c r="C37" t="s">
+        <v>340</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="J37" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="K37" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="L37" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="O37" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4249,50 +4552,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>57967</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>163199</v>
+      </c>
+      <c r="C38" t="s">
+        <v>348</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="J38" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="K38" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="L38" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4312,50 +4619,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>57967</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>163200</v>
+      </c>
+      <c r="C39" t="s">
+        <v>356</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="J39" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="K39" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="L39" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="O39" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -4377,56 +4688,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="X39" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="Y39" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>57967</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>82897</v>
+      </c>
+      <c r="C40" t="s">
+        <v>366</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="J40" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="K40" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="L40" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="O40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4448,56 +4763,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="X40" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="Y40" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>57967</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>22264</v>
+      </c>
+      <c r="C41" t="s">
+        <v>376</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="J41" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="K41" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="L41" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4519,56 +4838,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="X41" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="Y41" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>57967</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>163201</v>
+      </c>
+      <c r="C42" t="s">
+        <v>384</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="J42" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="K42" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="L42" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>350</v>
+        <v>390</v>
       </c>
       <c r="O42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4582,50 +4905,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>57967</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>12776</v>
+      </c>
+      <c r="C43" t="s">
+        <v>391</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="J43" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="K43" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="L43" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="O43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -4649,50 +4976,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>57967</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>163202</v>
+      </c>
+      <c r="C44" t="s">
+        <v>397</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="J44" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="K44" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="L44" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="O44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4716,50 +5047,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>57967</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>403</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="J45" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="K45" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="L45" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="O45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4783,50 +5118,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>57967</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>7</v>
+      </c>
+      <c r="C46" t="s">
+        <v>403</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="J46" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="K46" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="L46" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="O46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -4850,50 +5189,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>57967</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>163203</v>
+      </c>
+      <c r="C47" t="s">
+        <v>416</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="J47" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="K47" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="L47" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="O47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -4917,50 +5260,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>57967</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>163204</v>
+      </c>
+      <c r="C48" t="s">
+        <v>424</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="J48" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="K48" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="L48" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="O48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4984,35 +5331,39 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>57967</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C49" t="s">
+        <v>431</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="J49" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s"/>
@@ -5020,10 +5371,10 @@
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="O49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5044,42 +5395,43 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
-      <c r="Y49" t="s"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>57967</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>163205</v>
+      </c>
+      <c r="C50" t="s">
+        <v>435</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="J50" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="K50" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="L50" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
@@ -5108,50 +5460,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>57967</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>403</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="J51" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="K51" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="L51" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="O51" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5175,41 +5531,45 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>57967</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>163206</v>
+      </c>
+      <c r="C52" t="s">
+        <v>447</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="J52" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="K52" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="L52" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
@@ -5238,50 +5598,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>57967</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>7</v>
+      </c>
+      <c r="C53" t="s">
+        <v>403</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="J53" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="K53" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
       <c r="L53" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>410</v>
+        <v>458</v>
       </c>
       <c r="O53" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5305,50 +5669,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>409</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>57967</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>163183</v>
+      </c>
+      <c r="C54" t="s">
+        <v>194</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="J54" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="K54" t="s">
-        <v>414</v>
+        <v>462</v>
       </c>
       <c r="L54" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="O54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5372,50 +5740,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>57967</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>163207</v>
+      </c>
+      <c r="C55" t="s">
+        <v>465</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>418</v>
+        <v>467</v>
       </c>
       <c r="J55" t="s">
-        <v>419</v>
+        <v>468</v>
       </c>
       <c r="K55" t="s">
-        <v>420</v>
+        <v>469</v>
       </c>
       <c r="L55" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>422</v>
+        <v>471</v>
       </c>
       <c r="O55" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5439,35 +5811,39 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>421</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>57967</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>163208</v>
+      </c>
+      <c r="C56" t="s">
+        <v>472</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="J56" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s"/>
@@ -5475,10 +5851,10 @@
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="O56" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5499,51 +5875,52 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>57967</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>163209</v>
+      </c>
+      <c r="C57" t="s">
+        <v>477</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="J57" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="K57" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="L57" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
       <c r="N57" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="O57" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P57" t="n">
         <v>1</v>
@@ -5567,50 +5944,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57967</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>163210</v>
+      </c>
+      <c r="C58" t="s">
+        <v>485</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="J58" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="K58" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="L58" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="O58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5634,50 +6015,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>57967</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>28767</v>
+      </c>
+      <c r="C59" t="s">
+        <v>492</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="J59" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="K59" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="L59" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="O59" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5701,7 +6086,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_476.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_476.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="741">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,354 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>krowoldt</t>
-  </si>
-  <si>
-    <t>06/14/2018</t>
+    <t>08/24/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r609388862-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>55528</t>
+  </si>
+  <si>
+    <t>1145605</t>
+  </si>
+  <si>
+    <t>609388862</t>
+  </si>
+  <si>
+    <t>08/22/2018</t>
+  </si>
+  <si>
+    <t>Rude, Unprofessional and Dishonest</t>
+  </si>
+  <si>
+    <t>Made an online reservationat 9:00 PM August 22nd for August 31st-September 2nd. Upon recieving my itinerary the dates were the 22nd through the 23rd. As I live in a city 5 hours away I could obviously not stay in a hotel for the night i couldn't even reach before midnight.I quickly called the hotel to have my reservation changed. The hotel clerk answered and said "I can't hear you", before i could even switch from speaker phone she hung up on me. I called back again, I asked he to please not hang up on me and she told me in a very demeaning way that " if this about changing a reservation I will jsut have to call you back as i am very busy". I proceeded to give her my number, and when i tried to give her my name she said "really? REALLY?" and hung up on me again.I contacted Expedia for assistance and the agent managed to contact the hotel after a lengthy wait, only to come back and tell me that he had spoke with both the clerk and the manager and the manager agreed to not refund the charges but to not reserve me a room for the correct nights either. What a choice group of employees this place has, I'm glad they kept my money and spared me from two night of what must be pure hell staying there..MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Katie K, Manager at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded yesterday</t>
+  </si>
+  <si>
+    <t>Responded yesterday</t>
+  </si>
+  <si>
+    <t>Made an online reservationat 9:00 PM August 22nd for August 31st-September 2nd. Upon recieving my itinerary the dates were the 22nd through the 23rd. As I live in a city 5 hours away I could obviously not stay in a hotel for the night i couldn't even reach before midnight.I quickly called the hotel to have my reservation changed. The hotel clerk answered and said "I can't hear you", before i could even switch from speaker phone she hung up on me. I called back again, I asked he to please not hang up on me and she told me in a very demeaning way that " if this about changing a reservation I will jsut have to call you back as i am very busy". I proceeded to give her my number, and when i tried to give her my name she said "really? REALLY?" and hung up on me again.I contacted Expedia for assistance and the agent managed to contact the hotel after a lengthy wait, only to come back and tell me that he had spoke with both the clerk and the manager and the manager agreed to not refund the charges but to not reserve me a room for the correct nights either. What a choice group of employees this place has, I'm glad they kept my money and spared me from two night of what must be pure hell staying there..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r584180283-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>584180283</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Exceptional Accommodations</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 3 nights over the Memorial Day weekend.  We were very impressed with our accommodations.  The room was spacious and clean. Everything was in working order.  The front desk personnel was very friendly and helpful.  The breakfast was plentiful and well stocked.  The pool was especially since it was so hot while we were there. The location was very convenient. There are restaurants,  a grocery store and gas station very close. We will for sure stay here again when we come to the area to visit familyMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Manager_Bridgeport, Front Office Manager at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded June 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 3 nights over the Memorial Day weekend.  We were very impressed with our accommodations.  The room was spacious and clean. Everything was in working order.  The front desk personnel was very friendly and helpful.  The breakfast was plentiful and well stocked.  The pool was especially since it was so hot while we were there. The location was very convenient. There are restaurants,  a grocery store and gas station very close. We will for sure stay here again when we come to the area to visit familyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r606581242-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>606581242</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>Weary Traveler</t>
+  </si>
+  <si>
+    <t>This hotel is very clean with nicely furnished rooms  that are large and spacious. Very comfortable. Staff is very friendly. Location is very convenient. Bed is comfortable. Breakfast was offered but had to leave early.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Katie K, Manager at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>This hotel is very clean with nicely furnished rooms  that are large and spacious. Very comfortable. Staff is very friendly. Location is very convenient. Bed is comfortable. Breakfast was offered but had to leave early.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r604513594-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>604513594</t>
+  </si>
+  <si>
+    <t>08/08/2018</t>
+  </si>
+  <si>
+    <t>Great palce to stay in Bridgeport</t>
+  </si>
+  <si>
+    <t>Friendly staff, really clean room, excellent service, good breakfast, no traffic or airport noises, adequate landscaping, up-to-date fixtures, great choice of multiple TV channels, and well located to restaurants, lake ,and area businesses.MoreShow less</t>
+  </si>
+  <si>
+    <t>Katie K, Manager at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Friendly staff, really clean room, excellent service, good breakfast, no traffic or airport noises, adequate landscaping, up-to-date fixtures, great choice of multiple TV channels, and well located to restaurants, lake ,and area businesses.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r601340440-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>601340440</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>LACK OF CHARACTER</t>
+  </si>
+  <si>
+    <t>MGMT and Staff are dishonest.  MGMT and Staff do not follow contractual obligations.  The facilities are fine.  This hotel will be placed onto our companies banned list of places operators will NOT be allowed to stay for any reason purely because of the method of dishonesty.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Katie K, kristina at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>MGMT and Staff are dishonest.  MGMT and Staff do not follow contractual obligations.  The facilities are fine.  This hotel will be placed onto our companies banned list of places operators will NOT be allowed to stay for any reason purely because of the method of dishonesty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r596345929-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>596345929</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Always friendly, clean, and relaxing.</t>
+  </si>
+  <si>
+    <t>We stay here once a year when we come to see family and friends. Wouldn't stay anywhere else. Breakfast is a variety and always very good. The rooms are clean and well maintained. The staff is always friendly and willing to help. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Manager_Bridgeport, Manager at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded July 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2018</t>
+  </si>
+  <si>
+    <t>We stay here once a year when we come to see family and friends. Wouldn't stay anywhere else. Breakfast is a variety and always very good. The rooms are clean and well maintained. The staff is always friendly and willing to help. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r595461626-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>595461626</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>Excellent accomodations and management.</t>
+  </si>
+  <si>
+    <t>As alway, Katie and  other hotel personnel and staff are wonderful, and the main reason we love to stay at this La Quinta. Many hotels are clean and comfortable, but the personnel at this La Quinta make staying there a true pleasure.MoreShow less</t>
+  </si>
+  <si>
+    <t>Katie K, Owner at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded July 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2018</t>
+  </si>
+  <si>
+    <t>As alway, Katie and  other hotel personnel and staff are wonderful, and the main reason we love to stay at this La Quinta. Many hotels are clean and comfortable, but the personnel at this La Quinta make staying there a true pleasure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r591407812-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>591407812</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>Great experience!</t>
+  </si>
+  <si>
+    <t>Our stay was great! We thoroughly enjoyed the visit. If we ever go back to Bridgeport, we will definitely stay here again. The breakfast was excellent!! The staff were very friendly and accommodating.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Katie K, Owner at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded June 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2018</t>
+  </si>
+  <si>
+    <t>Our stay was great! We thoroughly enjoyed the visit. If we ever go back to Bridgeport, we will definitely stay here again. The breakfast was excellent!! The staff were very friendly and accommodating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r587590532-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>587590532</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel, but afew issues</t>
+  </si>
+  <si>
+    <t>We were there for a fishing tournament and pulling a boat.  There were at least 6 other guests with boats.   There was not enough space to accommodate all of the boats.  They were parked in fire lane.  Additionally, it was impossible to turn around in the parking lot, so we had to back out, with a boat in an extremely tight space. Being that close to Lake Bridgeport, the parking situatio is an issue.Additionally, when my husband was leaving about 6am, cleaning lady asked him if we were checking out.  He said no.  She asked what room we were in and he told her.  Then she came and knocked on the door.  I was still in bed!!! She asked if we were checking out or staying another night.  ***check out was noon!**** it is not even 7am!  And my husband just told her no!  I again said no and put the Do Not Disturb sign on the door.  I went back to sleep, but she came back again sometime before 10:45 (when my alarm was set) to see if we were still there.  That was not very nice.They did have free breakfast, so that is  a plus.  It was a very clean room and if we were not pulling a boat we would probably stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Katie K, Owner at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded June 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2018</t>
+  </si>
+  <si>
+    <t>We were there for a fishing tournament and pulling a boat.  There were at least 6 other guests with boats.   There was not enough space to accommodate all of the boats.  They were parked in fire lane.  Additionally, it was impossible to turn around in the parking lot, so we had to back out, with a boat in an extremely tight space. Being that close to Lake Bridgeport, the parking situatio is an issue.Additionally, when my husband was leaving about 6am, cleaning lady asked him if we were checking out.  He said no.  She asked what room we were in and he told her.  Then she came and knocked on the door.  I was still in bed!!! She asked if we were checking out or staying another night.  ***check out was noon!**** it is not even 7am!  And my husband just told her no!  I again said no and put the Do Not Disturb sign on the door.  I went back to sleep, but she came back again sometime before 10:45 (when my alarm was set) to see if we were still there.  That was not very nice.They did have free breakfast, so that is  a plus.  It was a very clean room and if we were not pulling a boat we would probably stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r586843451-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>586843451</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Gone fishing</t>
+  </si>
+  <si>
+    <t>Manager and owner went over and above to accomodate us and our boat.  Spent the time to help us find and electrical outlet to plug in our boat and was very helpful and concerned with the quality of our stay there.  Kuddos to the staff there, thanks.MoreShow less</t>
+  </si>
+  <si>
+    <t>Katie K, Owner at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded June 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2018</t>
+  </si>
+  <si>
+    <t>Manager and owner went over and above to accomodate us and our boat.  Spent the time to help us find and electrical outlet to plug in our boat and was very helpful and concerned with the quality of our stay there.  Kuddos to the staff there, thanks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r584574637-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>584574637</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>What a pleasant stay. The breakfast was so filling, with lots of great choices. Our room was clean and the beds were cozy. My 1 complaint was the feather pillows on the bed, to which I am allergic. The pool and hot tub were a nice place to relax. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_Bridgeport, Front Office Manager at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded June 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2018</t>
+  </si>
+  <si>
+    <t>What a pleasant stay. The breakfast was so filling, with lots of great choices. Our room was clean and the beds were cozy. My 1 complaint was the feather pillows on the bed, to which I am allergic. The pool and hot tub were a nice place to relax. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r582119732-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>582119732</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>Bridgeport stay</t>
+  </si>
+  <si>
+    <t>I would recommend The La Quinta at Bridgeport, TX to anyone. Our stay there was great. I have stayed there before on business and will do so again. If you are looking for a great place to stay especially for the cost, then give them a chance to earn and keep your business. I have spent thousands of nights with all different hotels, so I know of what I speak.MoreShow less</t>
+  </si>
+  <si>
+    <t>Katie K, Owner at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded May 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2018</t>
+  </si>
+  <si>
+    <t>I would recommend The La Quinta at Bridgeport, TX to anyone. Our stay there was great. I have stayed there before on business and will do so again. If you are looking for a great place to stay especially for the cost, then give them a chance to earn and keep your business. I have spent thousands of nights with all different hotels, so I know of what I speak.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r574120541-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>574120541</t>
+  </si>
+  <si>
+    <t>04/18/2018</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>This was a very good place to stay. The staff was super friendly and the room was awesome. The breakfast was great. The only issue I had was the road construction around the hotel. But my stay was great. No issues. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Katie K, Owner at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>This was a very good place to stay. The staff was super friendly and the room was awesome. The breakfast was great. The only issue I had was the road construction around the hotel. But my stay was great. No issues. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r558455468-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
-    <t>55528</t>
-  </si>
-  <si>
-    <t>1145605</t>
-  </si>
-  <si>
     <t>558455468</t>
   </si>
   <si>
@@ -177,9 +510,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Katie K, Front Office Manager at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded February 5, 2018</t>
   </si>
   <si>
@@ -189,9 +519,6 @@
     <t>I was in this bustling little town on business for a few days and was very pleased with my booking at the LaQuinta. The staff was outstanding.  When I checked, the lady working the desk was quick to recommend the town's favorite place to eat - and she was so right. She also said, "don't miss our breakfast here - it's great!"  She was right. I almost missed it though, not getting down to eat until right at close. But the lady working the breakfast bar saw me come in late, greeted me and asked if she could cook up something fresh and hot for me. Wow - well, yes!  It was delicious and so appreciated. I will return to LaQuinta again in Bridgeport.  One note of caution: The city street that takes you to and from the hotel is full of some serious potholes and even a major drop off as you turn off the feeder street to it. Be careful.  The city really needs to do some repairs ASAP!!!More</t>
   </si>
   <si>
-    <t>chadwellw2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r548753585-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -210,9 +537,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Manager_Bridgeport, Front Office Manager at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded December 24, 2017</t>
   </si>
   <si>
@@ -222,9 +546,6 @@
     <t>I was very impressed with the amount of space in the suite. The bed was very nice the bathroom was very clean I enjoyed the nice hot shower. The only thing I would consider having changed is having the coffee pot in the bathroom. More</t>
   </si>
   <si>
-    <t>W6341LJtimw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r544431884-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -252,9 +573,6 @@
     <t>I like how the staff is personable and keep your needs in mind! We have stayed at this hotel several times and the staff made sure to inform us about the rewards program. I am positive that this will save us money in the future since we come into town quite a bit.More</t>
   </si>
   <si>
-    <t>826felicias</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r542362769-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -279,9 +597,6 @@
     <t>The room was great. the top decorative blanket had a few stains on it but other than that the room was in mint condition. everything was clean and it exceeded our expectations. The breakfast was good but they were low on their juices and milk and no one was around to ask for more when we were getting ours and we had an uncooked sausage patty but overall the breakfast was really good. Was charged full price for the room instead of my government rate, so for sure check your bill if you are told one price and then charged another price. Overall, i would say this is a good hotel to stay at.More</t>
   </si>
   <si>
-    <t>PhePhe09</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r540718523-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -306,9 +621,6 @@
     <t>The room was great. The room was clean and was better than I originally expected. The breakfast was great as well. However, when I had booked our room I requested the King size bed with the pull out couch with my state discount (as I was there for family and a business meeting) and was told my card would not be charged until Sunday when we checked out. Got to the hotel and they had me in a double full size bedroom, which she quickly corrected. The lady helping us was very friendly and polite but the lady that was sitting at the front desk was RUDE! She reminded me that I only booked the room for two adults and one child, which is all that was staying in the hotel, but i had two visitors with me as I had just met up with my family in Denton. I politely told her that we knew that and they were only there to visit. THEN she charged me for the entire price of the hotel making it VOID for me to file with my job to be reimbursed for my business meeting Saturday and ran my card Friday when we checked in (which was not a big deal but was informed that we wouldn't be charged until Sunday). Great place but my advice would be to check your bill before leaving to make sure you are charged correctly.More</t>
   </si>
   <si>
-    <t>GREGORY G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r540406472-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -333,9 +645,6 @@
     <t>My wife and I came down from the Chicagoland area to visit CARE Rescue Texas. This hotel is run by a sweet couple. I’m not sure if they own it or are live in keepers, but they keep everything clean and pleasant. The lady was keeping the breakfast stocked and nothing ran out. She is very personable. I would not second guess staying here again. Awesome stay!!More</t>
   </si>
   <si>
-    <t>Joe H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r535273217-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -363,9 +672,6 @@
     <t>Best place to stay in Bridgeport, especially if you have pets.  Mrs Katy is the best.  Clean rooms, good breakfast and friendly service.  I stay here at least four times a year while working in the area.  I could stay closer to the job but the service and staff at this hotel make it worth the extra mileage.More</t>
   </si>
   <si>
-    <t>Sharon M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r532744431-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -381,9 +687,6 @@
     <t>Katie was great. Breakfast were good. We stayed here5 nights. Quiet and very clean!  Enjoyed our stay. Room was very nice and kept clean.  Full breakfast every morning. Katie kept breakfast put and replenished when needed MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Katie K, Manager at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded October 16, 2017</t>
   </si>
   <si>
@@ -393,9 +696,6 @@
     <t>Katie was great. Breakfast were good. We stayed here5 nights. Quiet and very clean!  Enjoyed our stay. Room was very nice and kept clean.  Full breakfast every morning. Katie kept breakfast put and replenished when needed More</t>
   </si>
   <si>
-    <t>306bartonc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r525636900-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -423,9 +723,6 @@
     <t>Bridgeport TX doesn't have a lot of options, this is a good one to stay close to the job site.  It prevents you from having to stay closer to Ft. Worth and driving a whole lot more every day.  Decent choice.More</t>
   </si>
   <si>
-    <t>jcorbett2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r521400755-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -450,7 +747,139 @@
     <t>We are soooo impressed with management &amp; staff who in our opinion are tops!!! The suite was clean &amp; comfortable.  Breakfast was delicious.  Service was personal &amp; immediate.  We are planning to stay there in the future.More</t>
   </si>
   <si>
-    <t>troyf277</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r520222244-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>520222244</t>
+  </si>
+  <si>
+    <t>09/01/2017</t>
+  </si>
+  <si>
+    <t>Smoke smell</t>
+  </si>
+  <si>
+    <t>The hallway outside my room was wrecking with smoke smell. I voiced my concern to the clerk on duty and the owner.  The owners said she could spray and that was all. Big drop in the road off the highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care  at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded September 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2017</t>
+  </si>
+  <si>
+    <t>The hallway outside my room was wrecking with smoke smell. I voiced my concern to the clerk on duty and the owner.  The owners said she could spray and that was all. Big drop in the road off the highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r499984768-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>499984768</t>
+  </si>
+  <si>
+    <t>07/09/2017</t>
+  </si>
+  <si>
+    <t>Great Stay if Traveling Through</t>
+  </si>
+  <si>
+    <t>Room was clean and well appointed - beds were comfy.  Dog friendly, has great green space near hotel where dogs can roam. Did not use pool - however, it looked clean. Breakfast was great - bacon, eggs, fresh fruit and more. All well prepared. Service was exceptional. Ms. Katie took good care of us with our late check-out time. We will definitely stop here again if in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Room was clean and well appointed - beds were comfy.  Dog friendly, has great green space near hotel where dogs can roam. Did not use pool - however, it looked clean. Breakfast was great - bacon, eggs, fresh fruit and more. All well prepared. Service was exceptional. Ms. Katie took good care of us with our late check-out time. We will definitely stop here again if in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r495839604-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>495839604</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok for our free night </t>
+  </si>
+  <si>
+    <t>Room was clean breakfast was good but hot tub never got hot and WiFi was weak.  Linens were clean but bed was really hard.  Used the guest laundry . After a few days with a family of 4, it had to be done.  Machine ran slow but got the job done.  Overall it was a decent stay. We would stay here again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Room was clean breakfast was good but hot tub never got hot and WiFi was weak.  Linens were clean but bed was really hard.  Used the guest laundry . After a few days with a family of 4, it had to be done.  Machine ran slow but got the job done.  Overall it was a decent stay. We would stay here again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r493383693-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>493383693</t>
+  </si>
+  <si>
+    <t>06/15/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst place to stay </t>
+  </si>
+  <si>
+    <t>Staff is very rude and disrespectful. They have no respect for their guests and are very unhelpful. I was wondering if their were any good restaurants nearby and the lady at the front gave no help whatsoever. The rooms are dirty and the bathrooms are unsanitary. I was sadly disappointed and disgusted at how the restroom in the room was maintained.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>LQ Customer Car... T, LQ Customer Care  at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded June 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2017</t>
+  </si>
+  <si>
+    <t>Staff is very rude and disrespectful. They have no respect for their guests and are very unhelpful. I was wondering if their were any good restaurants nearby and the lady at the front gave no help whatsoever. The rooms are dirty and the bathrooms are unsanitary. I was sadly disappointed and disgusted at how the restroom in the room was maintained.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r491658797-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>491658797</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>When in the area I always stay at this facility, and recommend to my friends, even though it is a little out of my way.  Other facilities in the area not as friendly, and not always in a safe location.  I feel very safe walking my dogs beside the school that seems to always have activities in the evening.     Best breakfast I've found anywhere, with a nice variety of fresh fruit.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Katie K, Manager at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded November 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2017</t>
+  </si>
+  <si>
+    <t>When in the area I always stay at this facility, and recommend to my friends, even though it is a little out of my way.  Other facilities in the area not as friendly, and not always in a safe location.  I feel very safe walking my dogs beside the school that seems to always have activities in the evening.     Best breakfast I've found anywhere, with a nice variety of fresh fruit.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r489766668-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
@@ -468,21 +897,9 @@
     <t>We do not usually choose La Quinta but very glad we did!   This is a new hotel in this town.  It had a great location to dining and shopping.  The hotel was clean and the staff was friendly.  I was impressed with the room.  We will be returning soon and will definitely stay again!MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
-    <t>Katie K, Manager at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded November 16, 2017</t>
-  </si>
-  <si>
-    <t>Responded November 16, 2017</t>
-  </si>
-  <si>
     <t>We do not usually choose La Quinta but very glad we did!   This is a new hotel in this town.  It had a great location to dining and shopping.  The hotel was clean and the staff was friendly.  I was impressed with the room.  We will be returning soon and will definitely stay again!More</t>
   </si>
   <si>
-    <t>Da V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r474836388-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -510,9 +927,6 @@
     <t>This is an older hotel that has been modernly refined. The owners work the counter and are very nice. I would most definitely stay here again. I was even made a real breakfast with real eggs and bacon... That was a first! Very clean and very nice!More</t>
   </si>
   <si>
-    <t>sportstravelerTexas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r473947593-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -535,9 +949,6 @@
   </si>
   <si>
     <t>Hotel was clean, well maintained and our room was fairly spacious. Bed, bedding, and pillows were very comfortable. Bathroom was spacious with ample vanity space for toiletries; towels were thick but a bit rough. Staff was friendly and efficient. Complementary breakfast was very good and consisted of real scrambled eggs, sausage, bacon, fresh biscuits and other items. There are plenty of places to eat within a short distance of hotel.More</t>
-  </si>
-  <si>
-    <t>FrumiousBandersnatch</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r471543108-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
@@ -573,9 +984,6 @@
 Bridgeport is not exactly a prosperous town, so what business that needs a hotel seems to gravitate here far more than the others here. This location is great, as the highway has most of the fast food in town all...This property is a labor of love for the dedicated owners of Katie and 'Peter' Kang, along with Amanda, and their cleaning staff. It's run almost like a bed and breakfast in a decent sized brand name hotel. There's a reason why the two competing properties across the street sit almost always empty all the time. (The Quality Inn &amp; Suites  on the other side of the road is NOT recommended!)We stay here for extended periods so we always ask for a ground floor suite (room 106). While a little more expensive, it has two large rooms and a king bed to spread out in, along with LQ's standard fridge and microwave. They have a big DirecTV channel lineup and two TVs in this room with a pull out sleeper couch if there are more than two of you, and there's a coin op laundry on site. And their welcoming dog policy is a major plus for us.Even if there are only 4 or 5 guests in the whole place Katie sets out breakfast every morning. She and Peter live on the property and are extremely attentive to your needs and requests, no matter what time of day.Bridgeport is not exactly a prosperous town, so what business that needs a hotel seems to gravitate here far more than the others here. This location is great, as the highway has most of the fast food in town all lined up in a row, along with a large, modern Brookshire supermarket right across the street. Only serious complaint we have is actually true of ALL LQs we've stayed at: they all seem to have the identical stiff as a board mattresses. So we always bring a foam mattress topper when we know we'll be at a LQ hotel, no matter where.That said, if you have to stay in Bridgeport, you can't beat the La Quinta.More</t>
   </si>
   <si>
-    <t>Billye J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r458422209-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -594,9 +1002,6 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Management response:Responded February 13, 2017</t>
   </si>
   <si>
@@ -606,9 +1011,6 @@
     <t>Hotel was clean, staff were friendly and accommodating. The breakfast was decent. The area was good. And I felt safe travelling alone. I had no problems here. Since this was the first night of my stay I felt good about the experience. And had a good trip because I did not have to worry about my sleeping arrangements.More</t>
   </si>
   <si>
-    <t>OKCtravler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r456839056-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -636,9 +1038,6 @@
     <t>Great little room with great breakfast.  Only 4 or 5 people staying that night in the entire hotel.  The location is great for the Bridgeport offload.  Parking is available in the back for trailer parking.More</t>
   </si>
   <si>
-    <t>graceg109998</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r446143942-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -666,9 +1065,6 @@
     <t>Staff was very rude, especially the front desk. The maid service was horrific because they wouldn't provide amenities that were needed. My room had ran out of toilet paper and they simply refused to give me more. The beds were also extremely uncomfortable and the ice machine didn't even work. I am never coming to this place again.More</t>
   </si>
   <si>
-    <t>Scott8147</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r426762360-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -696,9 +1092,6 @@
     <t>We stayed here one night. The manager (owner?), was very friendly at check in. She seemed to be doing everything as she was also handling breakfast the next morning.  We had a problem with the vending machines and she came promptly to open them and get what we wanted. Our room was clean with plenty of towels. We used the fitness room which was also fine.  An excellent stay.....recommended.More</t>
   </si>
   <si>
-    <t>486samuell</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r426918690-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -714,9 +1107,6 @@
     <t>Everyone excellant except cluttered exercise room. All pushed together instead of spaced for safer use. Rooms were clean and fresh looking. Breakfast was varied and plenty of warm items. Room was quiet. TV was easy to operate and manage. Bed was firm with plenty of pillows.  Parking was near entrance.Checkout was very fast. Checkin was smooth and paperwork was waiting on me. Text message sent earlier telling me that the room was ready.More</t>
   </si>
   <si>
-    <t>Corinne S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r421136045-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -744,7 +1134,202 @@
     <t>This is a very nice hotel.  Without a doubt, the best breakfast of any LQ or hotel I've stayed in.  Staff always friendly &amp; helpful.  Always willing to help in any way they can.  I also feel safe when outside this facilityMore</t>
   </si>
   <si>
-    <t>Joanna T</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r394136534-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>394136534</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Great Relaxing Time Away</t>
+  </si>
+  <si>
+    <t>Took a few days away for mine and my husbands 15th Anniversary and to take care of some business. Requested a room at the end of the hall on first floor. Upon arrival was greeted by a very sweet smiling lady. Was very quick with my check in. Got the room I requested. Nice big clean room with king bed, whirlpool tub in the room and near the pool. Room was very clean, no smells, a/c was very cold, and bed was very comfortable. Pillows are very firm so if you like a soft fluffy pillow, take your own. Nice big table/desk to do work and have meals. Breakfast was very good each morning. Hot waffles, eggs, sausage, bacon, gravy, biscuits and much more. Coffee was really good. There is a guest laundry too. The pool was clean and refreshing. Not a lot of places to eat around here but what is here is really good. Decatur is not but 15 min. away and there are a lot of places to eat and shop. Definitely would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_Bridgeport, Guest Relations Manager at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded July 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2016</t>
+  </si>
+  <si>
+    <t>Took a few days away for mine and my husbands 15th Anniversary and to take care of some business. Requested a room at the end of the hall on first floor. Upon arrival was greeted by a very sweet smiling lady. Was very quick with my check in. Got the room I requested. Nice big clean room with king bed, whirlpool tub in the room and near the pool. Room was very clean, no smells, a/c was very cold, and bed was very comfortable. Pillows are very firm so if you like a soft fluffy pillow, take your own. Nice big table/desk to do work and have meals. Breakfast was very good each morning. Hot waffles, eggs, sausage, bacon, gravy, biscuits and much more. Coffee was really good. There is a guest laundry too. The pool was clean and refreshing. Not a lot of places to eat around here but what is here is really good. Decatur is not but 15 min. away and there are a lot of places to eat and shop. Definitely would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r391611759-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>391611759</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>Enjoyed Stay</t>
+  </si>
+  <si>
+    <t>Very satisfied with stay, and priced right.  Rooms clean and staff helpful. Enjoyed pool with grandchildren.  They had good time, and pool was in good condition.  Breakfast ends at 9:30 am, wished it was open little longer.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Manager_Bridgeport, Manager at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Very satisfied with stay, and priced right.  Rooms clean and staff helpful. Enjoyed pool with grandchildren.  They had good time, and pool was in good condition.  Breakfast ends at 9:30 am, wished it was open little longer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r388755464-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>388755464</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>Overall nice stay</t>
+  </si>
+  <si>
+    <t>Positive: The hotel is located right off the hwy so it's very easy to get to and somehow there is no hwy traffic noise. The hotel is clean, the staff is nice and very quick to help with anything. The extra $10 or so to get the sofa and coffe table sitting area was worth it! The room is huge! It was really nice to have a microwave and mimi fridge! The free breakfast was wonderful with a lot of fresh options and plenty to fill up on. The pool and hot tub are small but clean, working, and a nice part of the stay! Negative: Free wifi apparently does not apply to tablets of any kind and the wifi is shotty . The staff promptly rebooted the wifi so my hone could connect, but it happens so frequently that it was more of a pain than luxury. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_Bridgeport, Manager at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Positive: The hotel is located right off the hwy so it's very easy to get to and somehow there is no hwy traffic noise. The hotel is clean, the staff is nice and very quick to help with anything. The extra $10 or so to get the sofa and coffe table sitting area was worth it! The room is huge! It was really nice to have a microwave and mimi fridge! The free breakfast was wonderful with a lot of fresh options and plenty to fill up on. The pool and hot tub are small but clean, working, and a nice part of the stay! Negative: Free wifi apparently does not apply to tablets of any kind and the wifi is shotty . The staff promptly rebooted the wifi so my hone could connect, but it happens so frequently that it was more of a pain than luxury. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r388483759-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>388483759</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Dirty room with poor breakfast</t>
+  </si>
+  <si>
+    <t>This hotel is very tired and dirty. The widow treatments were covered in cob webs. The second floor vending machines had been vandalized and not repaired. The elevator has cigarette butts in the corners. The attention to details were not present. The breakfast room was not very well stocked and didn't have much for choices. I think I would stay in Decatur next time MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_Bridgeport, Manager at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded July 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is very tired and dirty. The widow treatments were covered in cob webs. The second floor vending machines had been vandalized and not repaired. The elevator has cigarette butts in the corners. The attention to details were not present. The breakfast room was not very well stocked and didn't have much for choices. I think I would stay in Decatur next time More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r369763006-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>369763006</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>Great people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The people were great very helpful and friendly. the rates were very good and rooms were very nice, clean and comfortable. Just far enough out of Dallas so getting out to find something is not a hassle  I will stay there again no doubt. </t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r364502608-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>364502608</t>
+  </si>
+  <si>
+    <t>04/15/2016</t>
+  </si>
+  <si>
+    <t>March 29,2016</t>
+  </si>
+  <si>
+    <t>I stayed in a very clean room with the best service.  The next morning before I left they made sure I took the time to take advantage of the the breakfast and even went and got me fresh hot bacon because there was only a couple of pieces left and she wanted to make sure I had fresh bacon on my plate.  It was awesome.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r362949154-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>362949154</t>
+  </si>
+  <si>
+    <t>04/09/2016</t>
+  </si>
+  <si>
+    <t>LaQuinta Bridgeport</t>
+  </si>
+  <si>
+    <t>The check in and check out process was very fast.  Our room was spacious and not cramped at all.   Staff was friendly.    The only negative was the pool/spa were not working.  After working I would have enjoyed the use of the spa.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r356795174-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>356795174</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>Brand new</t>
+  </si>
+  <si>
+    <t>Beautiful and super clean hotel.  Brand new.  Great continental breakfast and super customer service.  Room was exquisite and immaculate.  Town was small so everything was nearby!  We had a great stay and would definitely rebook.  Price was $30 cheaper than Fort Worth areA.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r353313646-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>353313646</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>Stay in Bridgeport</t>
+  </si>
+  <si>
+    <t>Fro desk staff was exceptionally helpful with check in and restaurant recommendations.  Romm were clean, quiet and comfortable.  Also gave us great directions on our travel to LA.  Would stay here again in the future.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r327507823-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>327507823</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Modern, clean and quiet hotel</t>
+  </si>
+  <si>
+    <t>You walk into a large lobby, very modern and clean.  Check in is quick and efficient.  Rooms are large and clean.  This is a new building so everything is bright and shinning.Beds are very comfortable.  Bathroom very large.  You are close to a store, gas station, and a couple of restaurants.  The breakfast bar is good.If you ever in Bridgeport, Texas this place is a must for lodging.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r319993020-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
@@ -765,9 +1350,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>Melody H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r318266120-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -789,9 +1371,6 @@
     <t>My husband and I stayed in this hotel when I went to Texas to have surgery.Check-in was easy and the staff was very friendly.   We reserved a 2 queen bed room and it was pretty spacious.  It had typical amenities (coffee pot, mini-fridge, blow dryer, ironing board, etc).  The TV was a nice size and got a lot of channels.  The beds were pretty comfortable and the room was very clean.The entire hotel was pretty clean and the noise level was low.  We were on the first floor, but didn't hear anything from other guests.  It was a very convenient location to the hospital as well.I would definitely suggest staying in this La Quinta if you're ever in the Bridgeport area!More</t>
   </si>
   <si>
-    <t>BLACKWELL P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r308413583-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -810,9 +1389,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>Txmamma</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r307966972-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -844,9 +1420,6 @@
   </si>
   <si>
     <t>August 2015</t>
-  </si>
-  <si>
-    <t>Twolip29</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r291202890-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
@@ -874,9 +1447,6 @@
  We got ready to go to the pool and she found out we were on our way and said she will go get us some towels to take to the pool.  Pool area is nice just been to better pool areas.  It was in a small town so I wasn't expecting much.  We didn't use the fitness room or go inside...The rooms are very nice.  The only thing I didn't like was the high vanity in the bathrooms.  It's hard for small kids to use without the parents holding them up.  I'm short &amp; at times was hard for me.  What made it so bad instead of the vanity top being straight where the sink area is it was rounded out past the rest of the top of the vanity.  Very pretty but not well thought out. The breakfast was really good.  It had sausage, scrambled eggs, hard boiled eggs, Texas shaped  waffles that were really good.  Lots of assorted pastries, breads &amp; muffins,  fresh fruit, hot &amp; cold cereals, milk, coffee &amp; juice. The lady that ran it asked my husband if we wanted any more scrambled eggs.  He said it would be nice since his wife was coming down in a minute and not many left.  Then she said they hate to make to much food they don't want to have lots of food to throw away.  Rest of the time she was very nice &amp; helpful.  We got ready to go to the pool and she found out we were on our way and said she will go get us some towels to take to the pool.  Pool area is nice just been to better pool areas.  It was in a small town so I wasn't expecting much.  We didn't use the fitness room or go inside to check it out.This was a good place to take the family.  The grandkids loved staying there.More</t>
   </si>
   <si>
-    <t>Donnell K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r289730778-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -895,9 +1465,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>danielcA3075YI</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r289729921-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -913,9 +1480,6 @@
     <t>there nothing to say really it was awesome. However they charged my card incorrectly not once for a few times and although it was fixed it caused issues. My bank had to jump in and help just so that I had spending money for myself and family.</t>
   </si>
   <si>
-    <t>William B W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r285148599-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -931,9 +1495,6 @@
     <t>We stayed here one night.  The hotel staff was very friendly and accommodating.  The location is very convenient to the places we visited.  We needed a little extension of time for check out and the receptionist was very agreeable.  The breakfast was continental but sufficient and good.</t>
   </si>
   <si>
-    <t>John C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r284626121-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -949,9 +1510,6 @@
     <t>My wife and I stayed in this hotel overnight on a Saturday night.  The hotel is fairly new and is right on Hwy 380 so you can't miss it.  It was clean and comfortable.  Staff was courteous.  The free breakfast was good.  All in all it was an enjoyable stay.</t>
   </si>
   <si>
-    <t>Sharron F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r283056333-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -967,9 +1525,6 @@
     <t>Ms. Kang the manager was excellent, seem to take a person interest in making sure accommodations are satisfactory for her guest. Personally checked the temperature in the room upon our arrival, asked if wanted additional selections for breakfast. Even saw her cook bacon upon request by another guest.</t>
   </si>
   <si>
-    <t>Thomas J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r274120020-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -988,9 +1543,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>wtaylor2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r271117872-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1006,9 +1558,6 @@
     <t>The area seams like the economy has gone down since the oil drilling has slowed up. I have stayed in this  motel 4+ times. The staff is all ways friendly. The rooms are very clean. There are a few other motels in town but this one seams to be the best. Breakfast very good. The staff ask us how we would like our eggs cooked for breakfast. If you stay in motels a lot you know you do not have a choice in the breakfast items.</t>
   </si>
   <si>
-    <t>Robert B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r249535637-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1027,9 +1576,6 @@
     <t>December 2014</t>
   </si>
   <si>
-    <t>perrjojo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r242553587-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1046,9 +1592,6 @@
   </si>
   <si>
     <t>November 2014</t>
-  </si>
-  <si>
-    <t>JFshooter</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r233335581-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
@@ -1080,9 +1623,6 @@
 My one and only complaint was the WiFi situation. On the first night, I was able to get good Wifi in my room (on the 2nd floor). Every other night, I was unable to connect. One of the nights I had to go to the lobby to connect to the wifi, but the other 2 nights I was unable to connect to the wifi and the staff had no explanation...If you've never been to Bridgeport, TX, your options for food, lodging, and entertainment are extremely limited to say the least!! For major chain hotels in the area, there is the La Quinta Inn &amp; Suites and 1 other major national chain hotel, and a handful of "mom &amp; pop" type privately owned and operated local motels. The La Quinta seems to be pretty recent construction and looks somewhat out of place for its size and how nice and clean it is. The staff was very friendly, professional, pleasant, and helpful. Check-in was a breeze since they had already pre-checked everyone that had a reservation for the day, and already had room assignments, keys, and paperwork already ready for you when you arrived. The hotel is very nice, and clean. They offer a really good complimentary breakfast bar every morning from 6am - 10am. My room was a regular single room and was very comfortable and had a fridge, microwave, coffee maker, and all furnishings could have passed for new. My one and only complaint was the WiFi situation. On the first night, I was able to get good Wifi in my room (on the 2nd floor). Every other night, I was unable to connect. One of the nights I had to go to the lobby to connect to the wifi, but the other 2 nights I was unable to connect to the wifi and the staff had no explanation and apparently couldn't fix it. That was a slight inconvenience, and MY ONLY COMPLAINT. If you can deal with possibly having to go without wifi, you won't otherwise be disappointed with choosing the La Quinta for your stay in Bridgeport, TX.More</t>
   </si>
   <si>
-    <t>gustheguidedog</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r232709504-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1104,9 +1644,6 @@
     <t>I was shocked and dismayed by the “Horrible! Dried dog turds under bed.” comment earlier, its plain to see that the woman who made the comment either:-a) Thought by `Bad Mouthing` the hotel she was liable for compensation (Notice the mention of restitution)orb) works for a rival hotel and wants to dissuade folk from visiting this hotel.I am blind and therefore need to use the computer with the aid of specialized software, but hey look at the abilities NOT the disabilities. I work for the Disability Discrimination Commissioner for England and Wales  Last year I was asked to survey this hotel and I can highly recommend it to anyone in particular to VIPs (Visually Impaired People) the staff were VERY friendly but not to `in your face` they were however there if you need them, special thanks to the young lady who took my guide dog for a walk when I was called to the telephone.Note to Gale R (author of the malicious review , Making false reviews like that only leads to folk mistrusting your opinions in the future.Once again La Quinta thank you and I look forward to staying with you again next time I hope it's for pleasure rather than Business.More</t>
   </si>
   <si>
-    <t>Gale R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r210876625-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1134,9 +1671,6 @@
     <t>Most disgusting stay at any hotel ever. Toilet not cleaned from use when we arrived. Dried dog turds under the bed. Bugs in bathroom. Do not stay! Lady at front desk cleaned dog s___t from under bed and toilet while we were gone. However, there was no restitution offered of any kind.More</t>
   </si>
   <si>
-    <t>Phillip P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r209034274-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1164,9 +1698,6 @@
     <t>Spouse and I came up for a family event and brought our small dog.  No problem (or deposit) having a pet, room upgraded without asking, clean and comfortable, staff helpful.  Hotel quiet, we rested well, enjoyed free breakfast, obvious that management and staff were making effort to keep hotel in great shape and clean.  Best place I have stayed in the Decatur and Bridgeport area.More</t>
   </si>
   <si>
-    <t>Natalie W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r199863358-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1188,7 +1719,109 @@
     <t>This hotel was clean, the staff were friendly and the rooms were clean.  I would stay at this hotel again.  The location is good.  Hotel lobby was very clean and the breakfast area was tended to by hotel staff throughout the morning.More</t>
   </si>
   <si>
-    <t>703kellyv</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r197803035-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>197803035</t>
+  </si>
+  <si>
+    <t>03/17/2014</t>
+  </si>
+  <si>
+    <t>Noise and Depression</t>
+  </si>
+  <si>
+    <t>The noise level was higher than expected between rooms and the bedding was depressed in the middle to the extent that I felt like I was trying to sleep on the side of a mountain side.   The staff was friendly and check in and out was quick and accurate.  If the motel construction and bedding was of the same standard, I would have had a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>The noise level was higher than expected between rooms and the bedding was depressed in the middle to the extent that I felt like I was trying to sleep on the side of a mountain side.   The staff was friendly and check in and out was quick and accurate.  If the motel construction and bedding was of the same standard, I would have had a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r195433884-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>195433884</t>
+  </si>
+  <si>
+    <t>02/26/2014</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>This hotel was very clean, comfortable bed, and very reasonable rate. I highly recommend staying at the La Quinta in Bridgeport, TX if business or pleasure brings you to Bridgeport. I have stayed at another hotel here and it can not come close to La Quinta Inn &amp; Suites.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>This hotel was very clean, comfortable bed, and very reasonable rate. I highly recommend staying at the La Quinta in Bridgeport, TX if business or pleasure brings you to Bridgeport. I have stayed at another hotel here and it can not come close to La Quinta Inn &amp; Suites.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r190357760-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>190357760</t>
+  </si>
+  <si>
+    <t>01/03/2014</t>
+  </si>
+  <si>
+    <t>Business in Bridgeport</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel with a friendly staff. My company has been staying here for years. We tried another hotel because of price, (across the street they will keep your card on file and charge you when your not there) so we went back to the honest side of the highway.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Manager_Bridgeport, Manager at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded January 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2014</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel with a friendly staff. My company has been staying here for years. We tried another hotel because of price, (across the street they will keep your card on file and charge you when your not there) so we went back to the honest side of the highway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r189438452-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>189438452</t>
+  </si>
+  <si>
+    <t>12/27/2013</t>
+  </si>
+  <si>
+    <t>Texas Smile</t>
+  </si>
+  <si>
+    <t>Great and wonderful people that make you fell welcome and at home. The two locations mentioned previously are most definately are two locations I woud recomend to anybody for a down home feel like you are family stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_Bridgeport, Manager at La Quinta Inn &amp; Suites Bridgeport, responded to this reviewResponded January 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2014</t>
+  </si>
+  <si>
+    <t>Great and wonderful people that make you fell welcome and at home. The two locations mentioned previously are most definately are two locations I woud recomend to anybody for a down home feel like you are family stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r184507621-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>184507621</t>
+  </si>
+  <si>
+    <t>11/12/2013</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r170218967-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
@@ -1209,9 +1842,6 @@
     <t>July 2013</t>
   </si>
   <si>
-    <t>Charles C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r163880476-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1227,9 +1857,6 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>mason814</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r163662579-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1245,9 +1872,6 @@
     <t>This hotel was everything a hotel should be on a trip.  The front desk, manager and the maids were very pleasant and kind.  When the business center would not connect the hotel owner/manager allowed me into her office to print my boarding pass.  I would defiantly stay with La Quinta again on future trips.</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r158551250-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1284,7 +1908,61 @@
     <t>February 2013</t>
   </si>
   <si>
-    <t>Ibssguy</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r150835036-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>150835036</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r150661126-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>150661126</t>
+  </si>
+  <si>
+    <t>01/26/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r150037401-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>150037401</t>
+  </si>
+  <si>
+    <t>01/19/2013</t>
+  </si>
+  <si>
+    <t>Best service so far!</t>
+  </si>
+  <si>
+    <t>We really enjoyed our stay. Chose the hotel based on ratings online, location and price. Hotel was very clean and the rooms were very large, spacious, and beautifully decorated. The staff was extremely friendly and helpful throughout our stay. Great breakfast the next morning. Would definitely stay here again on our next visit to Bridgeport. A great find.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r148398701-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>148398701</t>
+  </si>
+  <si>
+    <t>12/30/2012</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r147490720-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>147490720</t>
+  </si>
+  <si>
+    <t>12/15/2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r146854685-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
@@ -1304,17 +1982,11 @@
 Breakfast was standard hot continental fare....I have had some excellent [and awful] service at motels over the years but none better than this.  I found out late 9pm or so that I would need to stay the night in Bridgeport, so I used the Kayak app to find a place to stay.  It gave me a $84 incl. tax rate, but when I clicked on it I was told the rate had gone up to 94+tax.  I called the motel directly and was quoted the $84 incl. tax rate.  The man I spoke with told me to just come on and we'd do the paperwork when I arrived.  When I got there, he had everything done except my personal info &amp; told me he had upgraded me to a suite for the same price since one was available.  I had a couple of business associates with me and we needed to visit so he offered to open the breakfast area for us.  The suite was actually two rooms &amp; a bath unlike many places where a large room is called a suite.  Each room had it's own thermostat controlled heat/cool.  The decor was a bit dated, but comfortable.   Living room had TV, couch, desk, wet bar, fridge &amp; microwave.  Bedroom was larger than many motel rooms I have stayed in.  Clean sheets, no bed bugs, comfortable linens.  Only complaint was that the bed squeaked terribly, every time I moved.Breakfast was standard hot continental fare.  Eggs, Sausage patties, biscuits &amp; gravy.  Cereal, basic pastries, waffles, fruit, yogurt, etc.  Juice, Coffee, tea &amp; hot chocolate.Outside pool, convenient parking.Overall, the motel was nothing special, just basically a comfortable place to sleep, but the service was far above normal service at this level hotel.  I would gladly stay here again because of it.MoreShow less</t>
   </si>
   <si>
-    <t>December 2012</t>
-  </si>
-  <si>
     <t>I have had some excellent [and awful] service at motels over the years but none better than this.  I found out late 9pm or so that I would need to stay the night in Bridgeport, so I used the Kayak app to find a place to stay.  It gave me a $84 incl. tax rate, but when I clicked on it I was told the rate had gone up to 94+tax.  I called the motel directly and was quoted the $84 incl. tax rate.  The man I spoke with told me to just come on and we'd do the paperwork when I arrived.  When I got there, he had everything done except my personal info &amp; told me he had upgraded me to a suite for the same price since one was available.  I had a couple of business associates with me and we needed to visit so he offered to open the breakfast area for us.  
 The suite was actually two rooms &amp; a bath unlike many places where a large room is called a suite.  Each room had it's own thermostat controlled heat/cool.  The decor was a bit dated, but comfortable.   Living room had TV, couch, desk, wet bar, fridge &amp; microwave.  Bedroom was larger than many motel rooms I have stayed in.  Clean sheets, no bed bugs, comfortable linens.  Only complaint was that the bed squeaked terribly, every time I moved.
 Breakfast was standard hot continental fare....I have had some excellent [and awful] service at motels over the years but none better than this.  I found out late 9pm or so that I would need to stay the night in Bridgeport, so I used the Kayak app to find a place to stay.  It gave me a $84 incl. tax rate, but when I clicked on it I was told the rate had gone up to 94+tax.  I called the motel directly and was quoted the $84 incl. tax rate.  The man I spoke with told me to just come on and we'd do the paperwork when I arrived.  When I got there, he had everything done except my personal info &amp; told me he had upgraded me to a suite for the same price since one was available.  I had a couple of business associates with me and we needed to visit so he offered to open the breakfast area for us.  The suite was actually two rooms &amp; a bath unlike many places where a large room is called a suite.  Each room had it's own thermostat controlled heat/cool.  The decor was a bit dated, but comfortable.   Living room had TV, couch, desk, wet bar, fridge &amp; microwave.  Bedroom was larger than many motel rooms I have stayed in.  Clean sheets, no bed bugs, comfortable linens.  Only complaint was that the bed squeaked terribly, every time I moved.Breakfast was standard hot continental fare.  Eggs, Sausage patties, biscuits &amp; gravy.  Cereal, basic pastries, waffles, fruit, yogurt, etc.  Juice, Coffee, tea &amp; hot chocolate.Outside pool, convenient parking.Overall, the motel was nothing special, just basically a comfortable place to sleep, but the service was far above normal service at this level hotel.  I would gladly stay here again because of it.More</t>
   </si>
   <si>
-    <t>Iguana108</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r146702983-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1333,9 +2005,6 @@
     <t>November 2012</t>
   </si>
   <si>
-    <t>A La Quinta traveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r146266159-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1345,9 +2014,6 @@
     <t>11/26/2012</t>
   </si>
   <si>
-    <t>tw547</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r145177658-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1381,9 +2047,6 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>Tony1200nice</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r143313492-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1435,9 +2098,6 @@
     <t>July 2012</t>
   </si>
   <si>
-    <t>Intae K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r132540615-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1456,9 +2116,6 @@
     <t>January 2012</t>
   </si>
   <si>
-    <t>eclectic138400</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r132365389-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1471,7 +2128,85 @@
     <t>June 2012</t>
   </si>
   <si>
-    <t>TIDMS</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r132126802-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>132126802</t>
+  </si>
+  <si>
+    <t>06/16/2012</t>
+  </si>
+  <si>
+    <t>EXCELLENT LA QUINTA</t>
+  </si>
+  <si>
+    <t>this hotel was perfect, everything was very clean, breakfast was excellent the staff were outstanding i will stay here again &amp; again</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r131965604-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>131965604</t>
+  </si>
+  <si>
+    <t>06/14/2012</t>
+  </si>
+  <si>
+    <t>Best hotel so far</t>
+  </si>
+  <si>
+    <t>Staffs was excellent, pillow was amazing. That was just perfect.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r131487182-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>131487182</t>
+  </si>
+  <si>
+    <t>06/07/2012</t>
+  </si>
+  <si>
+    <t>Above and beyond what we expected...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was my Husbands 40th Birthday weekend. Our room was huge. They allowed us to have extra guests at no charge. Therefore if anyone had too much to drink, they had a safe place to stay. We hauled a trailer with ATV's... The parking was well lit and we see our rig from where we stayed. The staff was very friendly.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r131366208-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>131366208</t>
+  </si>
+  <si>
+    <t>06/05/2012</t>
+  </si>
+  <si>
+    <t>Best bed in town, or Texas for that matter..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have been blown away by the quality of both the rooms as well as the staff. They go the extra mile or two to make your stay a good one. The beds are heaven on earth, and the rooms and bathrooms are spotless. Best hotel in Texas!I look forward to returning next month. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r117338319-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
+  </si>
+  <si>
+    <t>117338319</t>
+  </si>
+  <si>
+    <t>08/27/2011</t>
+  </si>
+  <si>
+    <t>best place in a small town</t>
+  </si>
+  <si>
+    <t>The rooms are clean, service is good.  It is an hour drive from DFW,  an hour from Witchita Falls and 45 minutes to Denton,  3 hours from Abilene going thru Weatherford.</t>
+  </si>
+  <si>
+    <t>September 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r101052604-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
@@ -1495,9 +2230,6 @@
     <t>Outside appearance was pathetic.  There was garbage in the landscape, the landscape was not groomed, and there was garbage overfowing out of the dumpster into the front entry drive.  The bathtub drain plug was broken, the water had a horrible smell, and the water pressure in the bathroom sink would not rinse a toothbrush.  The towels were as rough as sandpaper.  The outdoor pool was brown and gross, which for having 80 degree weather for sometime prior to my stay, I think it should have had Spring cleanup performed.  I had booked for two nights, but forfeited the expense for the second night and found other lodging.  P.S.  the staff was excitted about being there as I was. :-(More</t>
   </si>
   <si>
-    <t>Sarah8714</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r93881291-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1516,9 +2248,6 @@
     <t>January 2011</t>
   </si>
   <si>
-    <t>Bonden-in-Florida</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55528-d1145605-r81416890-La_Quinta_Inn_Suites_Bridgeport-Bridgeport_Texas.html</t>
   </si>
   <si>
@@ -1532,9 +2261,6 @@
   </si>
   <si>
     <t>Clean, quiet, a little hard to find as Bridgeport is not on what I would call the beaten path.  Check-in was a little delayed as there was a walk-up in front of me and only one person at the registration desk on a Friday afternoon.  I like LaQuinta's and would stay here again.</t>
-  </si>
-  <si>
-    <t>September 2010</t>
   </si>
 </sst>
 </file>
@@ -2039,202 +2765,186 @@
       <c r="A2" t="n">
         <v>57967</v>
       </c>
-      <c r="B2" t="n">
-        <v>163173</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>57967</v>
       </c>
-      <c r="B3" t="n">
-        <v>163174</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
       </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>57967</v>
       </c>
-      <c r="B4" t="n">
-        <v>163175</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
         <v>70</v>
       </c>
-      <c r="J4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>74</v>
-      </c>
-      <c r="O4" t="s">
-        <v>64</v>
-      </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
         <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -2247,274 +2957,272 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>57967</v>
       </c>
-      <c r="B5" t="n">
-        <v>163176</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" t="s">
-        <v>83</v>
-      </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
         <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>57967</v>
       </c>
-      <c r="B6" t="n">
-        <v>163177</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>87</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>74</v>
-      </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
       <c r="Q6" t="n">
         <v>4</v>
       </c>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
       <c r="S6" t="n">
         <v>4</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>57967</v>
       </c>
-      <c r="B7" t="n">
-        <v>163178</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
         <v>97</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="X7" t="s">
         <v>98</v>
       </c>
-      <c r="J7" t="s">
+      <c r="Y7" t="s">
         <v>99</v>
-      </c>
-      <c r="K7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
-      <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="s">
-        <v>102</v>
-      </c>
-      <c r="X7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>57967</v>
       </c>
-      <c r="B8" t="n">
-        <v>67131</v>
-      </c>
-      <c r="C8" t="s">
-        <v>105</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
         <v>5</v>
@@ -2523,7 +3231,7 @@
         <v>5</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -2533,125 +3241,127 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="X8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>57967</v>
       </c>
-      <c r="B9" t="n">
-        <v>7173</v>
-      </c>
-      <c r="C9" t="s">
-        <v>115</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>111</v>
+      </c>
+      <c r="L9" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>113</v>
+      </c>
+      <c r="O9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
         <v>116</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>117</v>
-      </c>
-      <c r="J9" t="s">
-        <v>118</v>
-      </c>
-      <c r="K9" t="s">
-        <v>119</v>
-      </c>
-      <c r="L9" t="s">
-        <v>120</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>111</v>
-      </c>
-      <c r="O9" t="s">
-        <v>121</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
-      <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="s">
-        <v>122</v>
-      </c>
-      <c r="X9" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>57967</v>
       </c>
-      <c r="B10" t="n">
-        <v>163179</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="P10" t="n">
         <v>4</v>
@@ -2667,66 +3377,62 @@
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="X10" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="Y10" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>57967</v>
       </c>
-      <c r="B11" t="n">
-        <v>163180</v>
-      </c>
-      <c r="C11" t="s">
-        <v>135</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2748,60 +3454,56 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="X11" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="Y11" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>57967</v>
       </c>
-      <c r="B12" t="n">
-        <v>163181</v>
-      </c>
-      <c r="C12" t="s">
-        <v>144</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2823,63 +3525,63 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="X12" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="Y12" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>57967</v>
       </c>
-      <c r="B13" t="n">
-        <v>163182</v>
-      </c>
-      <c r="C13" t="s">
-        <v>154</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
       <c r="R13" t="n">
         <v>5</v>
       </c>
@@ -2894,67 +3596,69 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="X13" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="Y13" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>57967</v>
       </c>
-      <c r="B14" t="n">
-        <v>147346</v>
-      </c>
-      <c r="C14" t="s">
-        <v>164</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="O14" t="s">
-        <v>64</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
       <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
         <v>5</v>
@@ -2963,209 +3667,203 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="X14" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="Y14" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>57967</v>
       </c>
-      <c r="B15" t="n">
-        <v>163183</v>
-      </c>
-      <c r="C15" t="s">
-        <v>173</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="O15" t="s">
-        <v>64</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="X15" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="Y15" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>57967</v>
       </c>
-      <c r="B16" t="n">
-        <v>108389</v>
-      </c>
-      <c r="C16" t="s">
-        <v>183</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="O16" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="X16" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="Y16" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>57967</v>
       </c>
-      <c r="B17" t="n">
-        <v>163184</v>
-      </c>
-      <c r="C17" t="s">
-        <v>194</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="O17" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
         <v>5</v>
       </c>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -3178,267 +3876,255 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="X17" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="Y17" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>57967</v>
       </c>
-      <c r="B18" t="n">
-        <v>163185</v>
-      </c>
-      <c r="C18" t="s">
-        <v>204</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="J18" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="K18" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="L18" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s">
-        <v>64</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
       <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="X18" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="Y18" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>57967</v>
       </c>
-      <c r="B19" t="n">
-        <v>163186</v>
-      </c>
-      <c r="C19" t="s">
-        <v>214</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="J19" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="O19" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="X19" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="Y19" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>57967</v>
       </c>
-      <c r="B20" t="n">
-        <v>163187</v>
-      </c>
-      <c r="C20" t="s">
-        <v>224</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="J20" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="X20" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="Y20" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>57967</v>
       </c>
-      <c r="B21" t="n">
-        <v>163188</v>
-      </c>
-      <c r="C21" t="s">
-        <v>230</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="O21" t="s">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -3460,203 +4146,197 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="X21" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="Y21" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>57967</v>
       </c>
-      <c r="B22" t="n">
-        <v>77526</v>
-      </c>
-      <c r="C22" t="s">
-        <v>240</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="J22" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="K22" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="L22" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>223</v>
+      </c>
+      <c r="X22" t="s">
+        <v>224</v>
+      </c>
       <c r="Y22" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>57967</v>
       </c>
-      <c r="B23" t="n">
-        <v>102274</v>
-      </c>
-      <c r="C23" t="s">
-        <v>247</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="J23" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="O23" t="s">
-        <v>121</v>
-      </c>
-      <c r="P23" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
       <c r="Q23" t="n">
-        <v>5</v>
-      </c>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>232</v>
+      </c>
+      <c r="X23" t="s">
+        <v>233</v>
+      </c>
       <c r="Y23" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>57967</v>
       </c>
-      <c r="B24" t="n">
-        <v>163189</v>
-      </c>
-      <c r="C24" t="s">
-        <v>255</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="J24" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="K24" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="L24" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="O24" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q24" t="n">
         <v>5</v>
       </c>
       <c r="R24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3668,323 +4348,311 @@
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>240</v>
+      </c>
+      <c r="X24" t="s">
+        <v>241</v>
+      </c>
       <c r="Y24" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>57967</v>
       </c>
-      <c r="B25" t="n">
-        <v>163190</v>
-      </c>
-      <c r="C25" t="s">
-        <v>262</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="J25" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="K25" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>248</v>
+      </c>
+      <c r="O25" t="s">
+        <v>70</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>249</v>
+      </c>
+      <c r="X25" t="s">
+        <v>250</v>
+      </c>
       <c r="Y25" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>57967</v>
       </c>
-      <c r="B26" t="n">
-        <v>163187</v>
-      </c>
-      <c r="C26" t="s">
-        <v>230</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="J26" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="K26" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="O26" t="s">
-        <v>190</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>258</v>
+      </c>
+      <c r="X26" t="s">
+        <v>259</v>
+      </c>
       <c r="Y26" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>57967</v>
       </c>
-      <c r="B27" t="n">
-        <v>163191</v>
-      </c>
-      <c r="C27" t="s">
-        <v>274</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="J27" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="K27" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="O27" t="s">
-        <v>64</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>4</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>267</v>
+      </c>
+      <c r="X27" t="s">
+        <v>268</v>
+      </c>
       <c r="Y27" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>57967</v>
       </c>
-      <c r="B28" t="n">
-        <v>163192</v>
-      </c>
-      <c r="C28" t="s">
-        <v>282</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="J28" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="K28" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="L28" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="O28" t="s">
-        <v>64</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>276</v>
+      </c>
+      <c r="X28" t="s">
+        <v>277</v>
+      </c>
       <c r="Y28" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>57967</v>
       </c>
-      <c r="B29" t="n">
-        <v>163193</v>
-      </c>
-      <c r="C29" t="s">
-        <v>289</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="J29" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="K29" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="L29" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="O29" t="s">
-        <v>64</v>
+        <v>284</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4005,64 +4673,70 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>285</v>
+      </c>
+      <c r="X29" t="s">
+        <v>286</v>
+      </c>
       <c r="Y29" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>57967</v>
       </c>
-      <c r="B30" t="n">
-        <v>163194</v>
-      </c>
-      <c r="C30" t="s">
-        <v>295</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="J30" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K30" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="L30" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="s"/>
+        <v>96</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
       <c r="Q30" t="n">
-        <v>4</v>
-      </c>
-      <c r="R30" t="s"/>
-      <c r="S30" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -4070,64 +4744,60 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>285</v>
+      </c>
+      <c r="X30" t="s">
+        <v>286</v>
+      </c>
       <c r="Y30" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>57967</v>
       </c>
-      <c r="B31" t="n">
-        <v>364</v>
-      </c>
-      <c r="C31" t="s">
-        <v>301</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="J31" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="K31" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="L31" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
       <c r="R31" t="n">
         <v>5</v>
       </c>
@@ -4141,70 +4811,64 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>300</v>
+      </c>
+      <c r="X31" t="s">
+        <v>301</v>
+      </c>
       <c r="Y31" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>57967</v>
       </c>
-      <c r="B32" t="n">
-        <v>163195</v>
-      </c>
-      <c r="C32" t="s">
-        <v>307</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="J32" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="K32" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="L32" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P32" t="s"/>
       <c r="Q32" t="n">
         <v>4</v>
       </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>5</v>
@@ -4212,135 +4876,131 @@
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>308</v>
+      </c>
+      <c r="X32" t="s">
+        <v>309</v>
+      </c>
       <c r="Y32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>57967</v>
       </c>
-      <c r="B33" t="n">
-        <v>1616</v>
-      </c>
-      <c r="C33" t="s">
-        <v>313</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
+        <v>311</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>312</v>
+      </c>
+      <c r="J33" t="s">
+        <v>313</v>
+      </c>
+      <c r="K33" t="s">
         <v>314</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="L33" t="s">
         <v>315</v>
       </c>
-      <c r="J33" t="s">
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
         <v>316</v>
       </c>
-      <c r="K33" t="s">
+      <c r="O33" t="s">
+        <v>96</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
         <v>317</v>
       </c>
-      <c r="L33" t="s">
+      <c r="X33" t="s">
         <v>318</v>
       </c>
-      <c r="M33" t="n">
-        <v>4</v>
-      </c>
-      <c r="N33" t="s">
+      <c r="Y33" t="s">
         <v>319</v>
-      </c>
-      <c r="O33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4</v>
-      </c>
-      <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
-      <c r="Y33" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>57967</v>
       </c>
-      <c r="B34" t="n">
-        <v>163196</v>
-      </c>
-      <c r="C34" t="s">
-        <v>320</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
+        <v>320</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
         <v>321</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>322</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>323</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>324</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
         <v>325</v>
       </c>
-      <c r="M34" t="n">
-        <v>4</v>
-      </c>
-      <c r="N34" t="s">
-        <v>319</v>
-      </c>
       <c r="O34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P34" t="s"/>
+        <v>284</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
       <c r="Q34" t="n">
         <v>4</v>
       </c>
-      <c r="R34" t="s"/>
-      <c r="S34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>4</v>
@@ -4348,60 +5008,60 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>326</v>
+      </c>
+      <c r="X34" t="s">
+        <v>327</v>
+      </c>
       <c r="Y34" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>57967</v>
       </c>
-      <c r="B35" t="n">
-        <v>1035</v>
-      </c>
-      <c r="C35" t="s">
-        <v>326</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="J35" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K35" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L35" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="O35" t="s">
-        <v>121</v>
+        <v>334</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q35" t="n">
         <v>5</v>
@@ -4419,196 +5079,194 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>335</v>
+      </c>
+      <c r="X35" t="s">
+        <v>336</v>
+      </c>
       <c r="Y35" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>57967</v>
       </c>
-      <c r="B36" t="n">
-        <v>163197</v>
-      </c>
-      <c r="C36" t="s">
-        <v>333</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="J36" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K36" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L36" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="O36" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>344</v>
+      </c>
+      <c r="X36" t="s">
+        <v>345</v>
+      </c>
       <c r="Y36" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>57967</v>
       </c>
-      <c r="B37" t="n">
-        <v>163198</v>
-      </c>
-      <c r="C37" t="s">
-        <v>340</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="J37" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K37" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="L37" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="O37" t="s">
-        <v>190</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
       <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>353</v>
+      </c>
+      <c r="X37" t="s">
+        <v>354</v>
+      </c>
       <c r="Y37" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>57967</v>
       </c>
-      <c r="B38" t="n">
-        <v>163199</v>
-      </c>
-      <c r="C38" t="s">
-        <v>348</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
+        <v>356</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>357</v>
+      </c>
+      <c r="J38" t="s">
         <v>349</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
-        <v>350</v>
-      </c>
-      <c r="J38" t="s">
-        <v>351</v>
-      </c>
       <c r="K38" t="s">
+        <v>358</v>
+      </c>
+      <c r="L38" t="s">
+        <v>359</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
         <v>352</v>
       </c>
-      <c r="L38" t="s">
-        <v>353</v>
-      </c>
-      <c r="M38" t="n">
-        <v>5</v>
-      </c>
-      <c r="N38" t="s">
-        <v>354</v>
-      </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q38" t="n">
         <v>5</v>
       </c>
       <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -4616,210 +5274,188 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>353</v>
+      </c>
+      <c r="X38" t="s">
+        <v>354</v>
+      </c>
       <c r="Y38" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>57967</v>
       </c>
-      <c r="B39" t="n">
-        <v>163200</v>
-      </c>
-      <c r="C39" t="s">
-        <v>356</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="J39" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K39" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L39" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="O39" t="s">
-        <v>121</v>
+        <v>284</v>
       </c>
       <c r="P39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="X39" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Y39" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>57967</v>
       </c>
-      <c r="B40" t="n">
-        <v>82897</v>
-      </c>
-      <c r="C40" t="s">
-        <v>366</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="J40" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K40" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L40" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
-      <c r="N40" t="s">
-        <v>372</v>
-      </c>
-      <c r="O40" t="s">
-        <v>64</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="X40" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Y40" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>57967</v>
       </c>
-      <c r="B41" t="n">
-        <v>22264</v>
-      </c>
-      <c r="C41" t="s">
-        <v>376</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="J41" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K41" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L41" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q41" t="n">
         <v>5</v>
@@ -4838,60 +5474,56 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="X41" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="Y41" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>57967</v>
       </c>
-      <c r="B42" t="n">
-        <v>163201</v>
-      </c>
-      <c r="C42" t="s">
-        <v>384</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="J42" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K42" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L42" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>284</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4902,128 +5534,114 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>392</v>
+      </c>
+      <c r="X42" t="s">
+        <v>393</v>
+      </c>
       <c r="Y42" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>57967</v>
       </c>
-      <c r="B43" t="n">
-        <v>12776</v>
-      </c>
-      <c r="C43" t="s">
-        <v>391</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="J43" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K43" t="s">
-        <v>158</v>
+        <v>398</v>
       </c>
       <c r="L43" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
-      </c>
-      <c r="N43" t="s">
-        <v>396</v>
-      </c>
-      <c r="O43" t="s">
-        <v>64</v>
-      </c>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
-      <c r="R43" t="n">
-        <v>3</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>400</v>
+      </c>
+      <c r="X43" t="s">
+        <v>401</v>
+      </c>
       <c r="Y43" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>57967</v>
       </c>
-      <c r="B44" t="n">
-        <v>163202</v>
-      </c>
-      <c r="C44" t="s">
-        <v>397</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="J44" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="K44" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="L44" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="O44" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5032,10 +5650,10 @@
         <v>5</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
@@ -5047,125 +5665,107 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>57967</v>
       </c>
-      <c r="B45" t="n">
-        <v>7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>403</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="J45" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="K45" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="L45" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="O45" t="s">
-        <v>64</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>57967</v>
       </c>
-      <c r="B46" t="n">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>403</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="J46" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K46" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L46" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="O46" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5189,104 +5789,86 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>57967</v>
       </c>
-      <c r="B47" t="n">
-        <v>163203</v>
-      </c>
-      <c r="C47" t="s">
-        <v>416</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="J47" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K47" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L47" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
-      </c>
-      <c r="P47" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>57967</v>
       </c>
-      <c r="B48" t="n">
-        <v>163204</v>
-      </c>
-      <c r="C48" t="s">
-        <v>424</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
         <v>425</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
         <v>426</v>
@@ -5301,30 +5883,20 @@
         <v>429</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="O48" t="s">
-        <v>64</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
@@ -5338,88 +5910,85 @@
       <c r="A49" t="n">
         <v>57967</v>
       </c>
-      <c r="B49" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C49" t="s">
-        <v>431</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
+        <v>430</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>431</v>
+      </c>
+      <c r="J49" t="s">
         <v>432</v>
       </c>
-      <c r="G49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="K49" t="s">
         <v>433</v>
       </c>
-      <c r="J49" t="s">
+      <c r="L49" t="s">
         <v>434</v>
       </c>
-      <c r="K49" t="s"/>
-      <c r="L49" t="s"/>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="O49" t="s">
-        <v>64</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="n">
         <v>5</v>
       </c>
       <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>57967</v>
       </c>
-      <c r="B50" t="n">
-        <v>163205</v>
-      </c>
-      <c r="C50" t="s">
-        <v>435</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
         <v>436</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
         <v>437</v>
@@ -5434,16 +6003,18 @@
         <v>440</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
-      </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>441</v>
+      </c>
+      <c r="O50" t="s">
+        <v>70</v>
+      </c>
       <c r="P50" t="n">
         <v>5</v>
       </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q50" t="s"/>
       <c r="R50" t="n">
         <v>5</v>
       </c>
@@ -5467,60 +6038,50 @@
       <c r="A51" t="n">
         <v>57967</v>
       </c>
-      <c r="B51" t="n">
-        <v>7</v>
-      </c>
-      <c r="C51" t="s">
-        <v>403</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J51" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K51" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L51" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O51" t="s">
-        <v>190</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P51" t="s"/>
       <c r="Q51" t="n">
         <v>5</v>
       </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
         <v>5</v>
@@ -5531,59 +6092,59 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>57967</v>
       </c>
-      <c r="B52" t="n">
-        <v>163206</v>
-      </c>
-      <c r="C52" t="s">
-        <v>447</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="J52" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K52" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L52" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
-      </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>454</v>
+      </c>
+      <c r="O52" t="s">
+        <v>284</v>
+      </c>
       <c r="P52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q52" t="n">
         <v>5</v>
       </c>
       <c r="R52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -5598,125 +6159,103 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>57967</v>
       </c>
-      <c r="B53" t="n">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>403</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="J53" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="K53" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="L53" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
-      <c r="N53" t="s">
-        <v>458</v>
-      </c>
-      <c r="O53" t="s">
-        <v>53</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>4</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>57967</v>
       </c>
-      <c r="B54" t="n">
-        <v>163183</v>
-      </c>
-      <c r="C54" t="s">
-        <v>194</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="J54" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K54" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L54" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O54" t="s">
-        <v>64</v>
+        <v>284</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5740,33 +6279,29 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>57967</v>
       </c>
-      <c r="B55" t="n">
-        <v>163207</v>
-      </c>
-      <c r="C55" t="s">
-        <v>465</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
         <v>466</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s">
         <v>467</v>
@@ -5787,23 +6322,19 @@
         <v>471</v>
       </c>
       <c r="O55" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
       </c>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q55" t="s"/>
       <c r="R55" t="n">
-        <v>5</v>
-      </c>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -5811,33 +6342,29 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>57967</v>
       </c>
-      <c r="B56" t="n">
-        <v>163208</v>
-      </c>
-      <c r="C56" t="s">
-        <v>472</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
         <v>473</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s">
         <v>474</v>
@@ -5845,16 +6372,20 @@
       <c r="J56" t="s">
         <v>475</v>
       </c>
-      <c r="K56" t="s"/>
-      <c r="L56" t="s"/>
+      <c r="K56" t="s">
+        <v>476</v>
+      </c>
+      <c r="L56" t="s">
+        <v>477</v>
+      </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O56" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5875,68 +6406,69 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>57967</v>
       </c>
-      <c r="B57" t="n">
-        <v>163209</v>
-      </c>
-      <c r="C57" t="s">
-        <v>477</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
+        <v>479</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>480</v>
+      </c>
+      <c r="J57" t="s">
+        <v>481</v>
+      </c>
+      <c r="K57" t="s">
+        <v>482</v>
+      </c>
+      <c r="L57" t="s">
+        <v>483</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
         <v>478</v>
       </c>
-      <c r="G57" t="s">
-        <v>46</v>
-      </c>
-      <c r="H57" t="s">
-        <v>47</v>
-      </c>
-      <c r="I57" t="s">
-        <v>479</v>
-      </c>
-      <c r="J57" t="s">
-        <v>480</v>
-      </c>
-      <c r="K57" t="s">
-        <v>481</v>
-      </c>
-      <c r="L57" t="s">
-        <v>482</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="s">
-        <v>483</v>
-      </c>
       <c r="O57" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="P57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -5944,67 +6476,57 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57967</v>
       </c>
-      <c r="B58" t="n">
-        <v>163210</v>
-      </c>
-      <c r="C58" t="s">
-        <v>485</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
+        <v>484</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>485</v>
+      </c>
+      <c r="J58" t="s">
         <v>486</v>
       </c>
-      <c r="G58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H58" t="s">
-        <v>47</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="K58" t="s">
         <v>487</v>
       </c>
-      <c r="J58" t="s">
+      <c r="L58" t="s">
         <v>488</v>
       </c>
-      <c r="K58" t="s">
-        <v>489</v>
-      </c>
-      <c r="L58" t="s">
-        <v>490</v>
-      </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
-      </c>
-      <c r="P58" t="n">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="P58" t="s"/>
       <c r="Q58" t="n">
-        <v>5</v>
-      </c>
-      <c r="R58" t="n">
-        <v>5</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
         <v>5</v>
@@ -6015,70 +6537,66 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>57967</v>
       </c>
-      <c r="B59" t="n">
-        <v>28767</v>
-      </c>
-      <c r="C59" t="s">
-        <v>492</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
+        <v>489</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>490</v>
+      </c>
+      <c r="J59" t="s">
+        <v>491</v>
+      </c>
+      <c r="K59" t="s">
+        <v>492</v>
+      </c>
+      <c r="L59" t="s">
         <v>493</v>
       </c>
-      <c r="G59" t="s">
-        <v>46</v>
-      </c>
-      <c r="H59" t="s">
-        <v>47</v>
-      </c>
-      <c r="I59" t="s">
-        <v>494</v>
-      </c>
-      <c r="J59" t="s">
-        <v>495</v>
-      </c>
-      <c r="K59" t="s">
-        <v>496</v>
-      </c>
-      <c r="L59" t="s">
-        <v>497</v>
-      </c>
       <c r="M59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>498</v>
+        <v>471</v>
       </c>
       <c r="O59" t="s">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="P59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -6086,7 +6604,2830 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>494</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>495</v>
+      </c>
+      <c r="J60" t="s">
+        <v>496</v>
+      </c>
+      <c r="K60" t="s">
         <v>497</v>
+      </c>
+      <c r="L60" t="s">
+        <v>498</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>471</v>
+      </c>
+      <c r="O60" t="s">
+        <v>70</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>499</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>500</v>
+      </c>
+      <c r="J61" t="s">
+        <v>501</v>
+      </c>
+      <c r="K61" t="s">
+        <v>502</v>
+      </c>
+      <c r="L61" t="s">
+        <v>503</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>504</v>
+      </c>
+      <c r="O61" t="s">
+        <v>70</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>505</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>506</v>
+      </c>
+      <c r="J62" t="s">
+        <v>507</v>
+      </c>
+      <c r="K62" t="s">
+        <v>508</v>
+      </c>
+      <c r="L62" t="s">
+        <v>509</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>504</v>
+      </c>
+      <c r="O62" t="s">
+        <v>70</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>510</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>511</v>
+      </c>
+      <c r="J63" t="s">
+        <v>512</v>
+      </c>
+      <c r="K63" t="s">
+        <v>513</v>
+      </c>
+      <c r="L63" t="s">
+        <v>514</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>515</v>
+      </c>
+      <c r="O63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>516</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>517</v>
+      </c>
+      <c r="J64" t="s">
+        <v>518</v>
+      </c>
+      <c r="K64" t="s">
+        <v>519</v>
+      </c>
+      <c r="L64" t="s">
+        <v>520</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>521</v>
+      </c>
+      <c r="O64" t="s">
+        <v>52</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>522</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>523</v>
+      </c>
+      <c r="J65" t="s">
+        <v>524</v>
+      </c>
+      <c r="K65" t="s">
+        <v>525</v>
+      </c>
+      <c r="L65" t="s">
+        <v>526</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>527</v>
+      </c>
+      <c r="O65" t="s">
+        <v>284</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>529</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>530</v>
+      </c>
+      <c r="J66" t="s">
+        <v>531</v>
+      </c>
+      <c r="K66" t="s">
+        <v>532</v>
+      </c>
+      <c r="L66" t="s">
+        <v>533</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>534</v>
+      </c>
+      <c r="O66" t="s">
+        <v>70</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>536</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>537</v>
+      </c>
+      <c r="J67" t="s">
+        <v>538</v>
+      </c>
+      <c r="K67" t="s">
+        <v>539</v>
+      </c>
+      <c r="L67" t="s">
+        <v>540</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>541</v>
+      </c>
+      <c r="O67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>542</v>
+      </c>
+      <c r="X67" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>545</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>546</v>
+      </c>
+      <c r="J68" t="s">
+        <v>547</v>
+      </c>
+      <c r="K68" t="s">
+        <v>548</v>
+      </c>
+      <c r="L68" t="s">
+        <v>549</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>550</v>
+      </c>
+      <c r="O68" t="s">
+        <v>96</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>551</v>
+      </c>
+      <c r="X68" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>554</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>555</v>
+      </c>
+      <c r="J69" t="s">
+        <v>556</v>
+      </c>
+      <c r="K69" t="s">
+        <v>557</v>
+      </c>
+      <c r="L69" t="s">
+        <v>558</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>559</v>
+      </c>
+      <c r="O69" t="s">
+        <v>70</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>551</v>
+      </c>
+      <c r="X69" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>561</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>562</v>
+      </c>
+      <c r="J70" t="s">
+        <v>563</v>
+      </c>
+      <c r="K70" t="s">
+        <v>564</v>
+      </c>
+      <c r="L70" t="s">
+        <v>565</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>559</v>
+      </c>
+      <c r="O70" t="s">
+        <v>96</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>551</v>
+      </c>
+      <c r="X70" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>567</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>568</v>
+      </c>
+      <c r="J71" t="s">
+        <v>569</v>
+      </c>
+      <c r="K71" t="s">
+        <v>570</v>
+      </c>
+      <c r="L71" t="s">
+        <v>571</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>572</v>
+      </c>
+      <c r="O71" t="s">
+        <v>70</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>551</v>
+      </c>
+      <c r="X71" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>574</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>575</v>
+      </c>
+      <c r="J72" t="s">
+        <v>576</v>
+      </c>
+      <c r="K72" t="s">
+        <v>577</v>
+      </c>
+      <c r="L72" t="s">
+        <v>578</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>579</v>
+      </c>
+      <c r="O72" t="s">
+        <v>70</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>580</v>
+      </c>
+      <c r="X72" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>583</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>584</v>
+      </c>
+      <c r="J73" t="s">
+        <v>585</v>
+      </c>
+      <c r="K73" t="s">
+        <v>586</v>
+      </c>
+      <c r="L73" t="s">
+        <v>587</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>579</v>
+      </c>
+      <c r="O73" t="s">
+        <v>70</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>588</v>
+      </c>
+      <c r="X73" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>591</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>592</v>
+      </c>
+      <c r="J74" t="s">
+        <v>593</v>
+      </c>
+      <c r="K74" t="s"/>
+      <c r="L74" t="s">
+        <v>594</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>534</v>
+      </c>
+      <c r="O74" t="s">
+        <v>96</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>588</v>
+      </c>
+      <c r="X74" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>596</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>597</v>
+      </c>
+      <c r="J75" t="s">
+        <v>598</v>
+      </c>
+      <c r="K75" t="s">
+        <v>599</v>
+      </c>
+      <c r="L75" t="s">
+        <v>600</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>601</v>
+      </c>
+      <c r="O75" t="s">
+        <v>70</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>602</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>603</v>
+      </c>
+      <c r="J76" t="s">
+        <v>604</v>
+      </c>
+      <c r="K76" t="s">
+        <v>297</v>
+      </c>
+      <c r="L76" t="s">
+        <v>605</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>606</v>
+      </c>
+      <c r="O76" t="s">
+        <v>96</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>607</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>608</v>
+      </c>
+      <c r="J77" t="s">
+        <v>609</v>
+      </c>
+      <c r="K77" t="s">
+        <v>610</v>
+      </c>
+      <c r="L77" t="s">
+        <v>611</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>606</v>
+      </c>
+      <c r="O77" t="s">
+        <v>96</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>612</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>613</v>
+      </c>
+      <c r="J78" t="s">
+        <v>614</v>
+      </c>
+      <c r="K78" t="s">
+        <v>615</v>
+      </c>
+      <c r="L78" t="s">
+        <v>616</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>617</v>
+      </c>
+      <c r="O78" t="s">
+        <v>96</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>618</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>619</v>
+      </c>
+      <c r="J79" t="s">
+        <v>620</v>
+      </c>
+      <c r="K79" t="s">
+        <v>621</v>
+      </c>
+      <c r="L79" t="s">
+        <v>622</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>623</v>
+      </c>
+      <c r="O79" t="s">
+        <v>96</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>624</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>625</v>
+      </c>
+      <c r="J80" t="s">
+        <v>626</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s"/>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>627</v>
+      </c>
+      <c r="O80" t="s">
+        <v>284</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>628</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>629</v>
+      </c>
+      <c r="J81" t="s">
+        <v>630</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s"/>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>627</v>
+      </c>
+      <c r="O81" t="s">
+        <v>96</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>631</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>632</v>
+      </c>
+      <c r="J82" t="s">
+        <v>633</v>
+      </c>
+      <c r="K82" t="s">
+        <v>634</v>
+      </c>
+      <c r="L82" t="s">
+        <v>635</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>636</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>637</v>
+      </c>
+      <c r="J83" t="s">
+        <v>638</v>
+      </c>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s"/>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>639</v>
+      </c>
+      <c r="O83" t="s">
+        <v>96</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>640</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>641</v>
+      </c>
+      <c r="J84" t="s">
+        <v>642</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s"/>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>639</v>
+      </c>
+      <c r="O84" t="s">
+        <v>70</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>643</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>644</v>
+      </c>
+      <c r="J85" t="s">
+        <v>645</v>
+      </c>
+      <c r="K85" t="s">
+        <v>646</v>
+      </c>
+      <c r="L85" t="s">
+        <v>647</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>639</v>
+      </c>
+      <c r="O85" t="s">
+        <v>70</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>649</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>650</v>
+      </c>
+      <c r="J86" t="s">
+        <v>651</v>
+      </c>
+      <c r="K86" t="s">
+        <v>652</v>
+      </c>
+      <c r="L86" t="s">
+        <v>653</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>654</v>
+      </c>
+      <c r="O86" t="s">
+        <v>96</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>655</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>656</v>
+      </c>
+      <c r="J87" t="s">
+        <v>657</v>
+      </c>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s"/>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>654</v>
+      </c>
+      <c r="O87" t="s">
+        <v>96</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>658</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>659</v>
+      </c>
+      <c r="J88" t="s">
+        <v>660</v>
+      </c>
+      <c r="K88" t="s">
+        <v>661</v>
+      </c>
+      <c r="L88" t="s">
+        <v>662</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>663</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>664</v>
+      </c>
+      <c r="J89" t="s">
+        <v>665</v>
+      </c>
+      <c r="K89" t="s">
+        <v>666</v>
+      </c>
+      <c r="L89" t="s">
+        <v>667</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>668</v>
+      </c>
+      <c r="O89" t="s">
+        <v>284</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>669</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>670</v>
+      </c>
+      <c r="J90" t="s">
+        <v>671</v>
+      </c>
+      <c r="K90" t="s">
+        <v>672</v>
+      </c>
+      <c r="L90" t="s">
+        <v>673</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>674</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>675</v>
+      </c>
+      <c r="J91" t="s">
+        <v>676</v>
+      </c>
+      <c r="K91" t="s">
+        <v>677</v>
+      </c>
+      <c r="L91" t="s">
+        <v>678</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>679</v>
+      </c>
+      <c r="O91" t="s">
+        <v>70</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>680</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>681</v>
+      </c>
+      <c r="J92" t="s">
+        <v>682</v>
+      </c>
+      <c r="K92" t="s">
+        <v>683</v>
+      </c>
+      <c r="L92" t="s">
+        <v>684</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>685</v>
+      </c>
+      <c r="O92" t="s">
+        <v>96</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>686</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>687</v>
+      </c>
+      <c r="J93" t="s">
+        <v>688</v>
+      </c>
+      <c r="K93" t="s">
+        <v>689</v>
+      </c>
+      <c r="L93" t="s">
+        <v>690</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>691</v>
+      </c>
+      <c r="O93" t="s">
+        <v>52</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>692</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>693</v>
+      </c>
+      <c r="J94" t="s">
+        <v>694</v>
+      </c>
+      <c r="K94" t="s"/>
+      <c r="L94" t="s"/>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>695</v>
+      </c>
+      <c r="O94" t="s">
+        <v>284</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>696</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>697</v>
+      </c>
+      <c r="J95" t="s">
+        <v>698</v>
+      </c>
+      <c r="K95" t="s">
+        <v>699</v>
+      </c>
+      <c r="L95" t="s">
+        <v>700</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>695</v>
+      </c>
+      <c r="O95" t="s">
+        <v>96</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>701</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>702</v>
+      </c>
+      <c r="J96" t="s">
+        <v>703</v>
+      </c>
+      <c r="K96" t="s">
+        <v>704</v>
+      </c>
+      <c r="L96" t="s">
+        <v>705</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>706</v>
+      </c>
+      <c r="O96" t="s">
+        <v>284</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>707</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>708</v>
+      </c>
+      <c r="J97" t="s">
+        <v>709</v>
+      </c>
+      <c r="K97" t="s">
+        <v>710</v>
+      </c>
+      <c r="L97" t="s">
+        <v>711</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>712</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>713</v>
+      </c>
+      <c r="J98" t="s">
+        <v>714</v>
+      </c>
+      <c r="K98" t="s">
+        <v>715</v>
+      </c>
+      <c r="L98" t="s">
+        <v>716</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>695</v>
+      </c>
+      <c r="O98" t="s">
+        <v>284</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>717</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>718</v>
+      </c>
+      <c r="J99" t="s">
+        <v>719</v>
+      </c>
+      <c r="K99" t="s">
+        <v>720</v>
+      </c>
+      <c r="L99" t="s">
+        <v>721</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>722</v>
+      </c>
+      <c r="O99" t="s">
+        <v>70</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
+        <v>723</v>
+      </c>
+      <c r="G100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H100" t="s">
+        <v>46</v>
+      </c>
+      <c r="I100" t="s">
+        <v>724</v>
+      </c>
+      <c r="J100" t="s">
+        <v>725</v>
+      </c>
+      <c r="K100" t="s">
+        <v>726</v>
+      </c>
+      <c r="L100" t="s">
+        <v>727</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>728</v>
+      </c>
+      <c r="O100" t="s">
+        <v>96</v>
+      </c>
+      <c r="P100" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>1</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2</v>
+      </c>
+      <c r="S100" t="n">
+        <v>1</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>1</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" t="s">
+        <v>730</v>
+      </c>
+      <c r="G101" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" t="s">
+        <v>731</v>
+      </c>
+      <c r="J101" t="s">
+        <v>732</v>
+      </c>
+      <c r="K101" t="s">
+        <v>733</v>
+      </c>
+      <c r="L101" t="s">
+        <v>734</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>735</v>
+      </c>
+      <c r="O101" t="s">
+        <v>70</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>57967</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
+        <v>736</v>
+      </c>
+      <c r="G102" t="s">
+        <v>45</v>
+      </c>
+      <c r="H102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" t="s">
+        <v>737</v>
+      </c>
+      <c r="J102" t="s">
+        <v>738</v>
+      </c>
+      <c r="K102" t="s">
+        <v>739</v>
+      </c>
+      <c r="L102" t="s">
+        <v>740</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>722</v>
+      </c>
+      <c r="O102" t="s">
+        <v>284</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>740</v>
       </c>
     </row>
   </sheetData>
